--- a/results/region_genre_07_twoway_posthoc.xlsx
+++ b/results/region_genre_07_twoway_posthoc.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17867.9243</v>
+        <v>19276.01</v>
       </c>
       <c r="G2" t="n">
         <v>0.9</v>
       </c>
       <c r="H2" t="n">
-        <v>-19693.8811</v>
+        <v>-60333.4985</v>
       </c>
       <c r="I2" t="n">
-        <v>55429.7297</v>
+        <v>98885.51850000001</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>11762.6804</v>
+        <v>59284.4173</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9</v>
+        <v>0.7713</v>
       </c>
       <c r="H3" t="n">
-        <v>-27915.4033</v>
+        <v>-33875.2648</v>
       </c>
       <c r="I3" t="n">
-        <v>51440.7641</v>
+        <v>152444.0995</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>157878.1729</v>
+        <v>177275.5149</v>
       </c>
       <c r="G4" t="n">
         <v>0.001</v>
       </c>
       <c r="H4" t="n">
-        <v>111024.9547</v>
+        <v>92470.60799999999</v>
       </c>
       <c r="I4" t="n">
-        <v>204731.3912</v>
+        <v>262080.4217</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10225.5345</v>
+        <v>54939.3048</v>
       </c>
       <c r="G5" t="n">
         <v>0.9</v>
       </c>
       <c r="H5" t="n">
-        <v>-34690.1468</v>
+        <v>-51237.0457</v>
       </c>
       <c r="I5" t="n">
-        <v>55141.2157</v>
+        <v>161115.6554</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -665,19 +665,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3160.9144</v>
+        <v>93282.2414</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>0.0488</v>
       </c>
       <c r="H6" t="n">
-        <v>-32813.8313</v>
+        <v>190.8089</v>
       </c>
       <c r="I6" t="n">
-        <v>39135.6601</v>
+        <v>186373.6739</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -705,16 +705,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>242449.5677</v>
+        <v>255897.1662</v>
       </c>
       <c r="G7" t="n">
         <v>0.001</v>
       </c>
       <c r="H7" t="n">
-        <v>209150.2838</v>
+        <v>191874.8261</v>
       </c>
       <c r="I7" t="n">
-        <v>275748.8516</v>
+        <v>319919.5063</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -745,16 +745,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>173513.4446</v>
+        <v>256068.6217</v>
       </c>
       <c r="G8" t="n">
         <v>0.001</v>
       </c>
       <c r="H8" t="n">
-        <v>135951.6392</v>
+        <v>182177.3557</v>
       </c>
       <c r="I8" t="n">
-        <v>211075.25</v>
+        <v>329959.8877</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>131669.9037</v>
+        <v>161310.1685</v>
       </c>
       <c r="G9" t="n">
         <v>0.001</v>
       </c>
       <c r="H9" t="n">
-        <v>91991.82000000001</v>
+        <v>85413.6201</v>
       </c>
       <c r="I9" t="n">
-        <v>171347.9875</v>
+        <v>237206.7169</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -825,16 +825,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>164871.7764</v>
+        <v>245750.8981</v>
       </c>
       <c r="G10" t="n">
         <v>0.001</v>
       </c>
       <c r="H10" t="n">
-        <v>118018.5581</v>
+        <v>156380.5828</v>
       </c>
       <c r="I10" t="n">
-        <v>211724.9946</v>
+        <v>335121.2134</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>75952.7208</v>
+        <v>103742.715</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001</v>
+        <v>0.0044</v>
       </c>
       <c r="H11" t="n">
-        <v>31037.0395</v>
+        <v>15553.1717</v>
       </c>
       <c r="I11" t="n">
-        <v>120868.402</v>
+        <v>191932.2582</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -905,16 +905,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>220707.1773</v>
+        <v>212566.9804</v>
       </c>
       <c r="G12" t="n">
         <v>0.001</v>
       </c>
       <c r="H12" t="n">
-        <v>184732.4316</v>
+        <v>145690.5191</v>
       </c>
       <c r="I12" t="n">
-        <v>256681.923</v>
+        <v>279443.4416</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -945,16 +945,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7984.5101</v>
+        <v>-41292.7779</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9</v>
+        <v>0.8077</v>
       </c>
       <c r="H13" t="n">
-        <v>-25314.7738</v>
+        <v>-107745.169</v>
       </c>
       <c r="I13" t="n">
-        <v>41283.794</v>
+        <v>25159.6131</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-12596.739</v>
+        <v>-58563.6148</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9</v>
+        <v>0.4878</v>
       </c>
       <c r="H14" t="n">
-        <v>-50158.5445</v>
+        <v>-136356.5604</v>
       </c>
       <c r="I14" t="n">
-        <v>24965.0664</v>
+        <v>19229.3308</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-16892.0578</v>
+        <v>-71265.83199999999</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9</v>
+        <v>0.173</v>
       </c>
       <c r="H15" t="n">
-        <v>-56570.1416</v>
+        <v>-151717.7306</v>
       </c>
       <c r="I15" t="n">
-        <v>22786.0259</v>
+        <v>9186.066699999999</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-8672.9998</v>
+        <v>-56928.6634</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>0.8209</v>
       </c>
       <c r="H16" t="n">
-        <v>-55526.218</v>
+        <v>-149350.7705</v>
       </c>
       <c r="I16" t="n">
-        <v>38180.2185</v>
+        <v>35493.4437</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-27245.9484</v>
+        <v>-87804.947</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8438</v>
+        <v>0.0958</v>
       </c>
       <c r="H17" t="n">
-        <v>-72161.6297</v>
+        <v>-180896.3795</v>
       </c>
       <c r="I17" t="n">
-        <v>17669.7328</v>
+        <v>5286.4855</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -1145,16 +1145,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8890.306399999999</v>
+        <v>-44372.4178</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>0.7706</v>
       </c>
       <c r="H18" t="n">
-        <v>-27084.4393</v>
+        <v>-114070.0053</v>
       </c>
       <c r="I18" t="n">
-        <v>44865.0521</v>
+        <v>25325.1697</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -1185,16 +1185,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>112069.5245</v>
+        <v>102302.943</v>
       </c>
       <c r="G19" t="n">
         <v>0.001</v>
       </c>
       <c r="H19" t="n">
-        <v>78770.2406</v>
+        <v>37247.2476</v>
       </c>
       <c r="I19" t="n">
-        <v>145368.8084</v>
+        <v>167358.6384</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1225,16 +1225,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>75970.3172</v>
+        <v>106572.4882</v>
       </c>
       <c r="G20" t="n">
         <v>0.001</v>
       </c>
       <c r="H20" t="n">
-        <v>38408.5118</v>
+        <v>30825.1982</v>
       </c>
       <c r="I20" t="n">
-        <v>113532.1226</v>
+        <v>182319.7782</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -1265,19 +1265,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>43956.186</v>
+        <v>63053.0407</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0121</v>
+        <v>0.4373</v>
       </c>
       <c r="H21" t="n">
-        <v>4278.1023</v>
+        <v>-18650.57</v>
       </c>
       <c r="I21" t="n">
-        <v>83634.26979999999</v>
+        <v>144756.6514</v>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1305,16 +1305,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>77691.6058</v>
+        <v>124690.549</v>
       </c>
       <c r="G22" t="n">
         <v>0.001</v>
       </c>
       <c r="H22" t="n">
-        <v>30838.3875</v>
+        <v>30905.4346</v>
       </c>
       <c r="I22" t="n">
-        <v>124544.824</v>
+        <v>218475.6635</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -1345,16 +1345,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>33490.7436</v>
+        <v>33546.5437</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5056</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
-        <v>-11424.9377</v>
+        <v>-56706.6479</v>
       </c>
       <c r="I23" t="n">
-        <v>78406.42479999999</v>
+        <v>123799.7353</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>118847.0475</v>
+        <v>116278.3196</v>
       </c>
       <c r="G24" t="n">
         <v>0.001</v>
       </c>
       <c r="H24" t="n">
-        <v>82872.3018</v>
+        <v>47351.5122</v>
       </c>
       <c r="I24" t="n">
-        <v>154821.7933</v>
+        <v>185205.127</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -1425,16 +1425,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-6105.2439</v>
+        <v>40008.4073</v>
       </c>
       <c r="G25" t="n">
         <v>0.9</v>
       </c>
       <c r="H25" t="n">
-        <v>-49422.6451</v>
+        <v>-57295.2445</v>
       </c>
       <c r="I25" t="n">
-        <v>37212.1573</v>
+        <v>137312.0592</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -1465,16 +1465,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>140010.2487</v>
+        <v>157999.5049</v>
       </c>
       <c r="G26" t="n">
         <v>0.001</v>
       </c>
       <c r="H26" t="n">
-        <v>90037.54640000001</v>
+        <v>68662.24219999999</v>
       </c>
       <c r="I26" t="n">
-        <v>189982.951</v>
+        <v>247336.7676</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-7642.3898</v>
+        <v>35663.2948</v>
       </c>
       <c r="G27" t="n">
         <v>0.9</v>
       </c>
       <c r="H27" t="n">
-        <v>-55803.2177</v>
+        <v>-74166.9911</v>
       </c>
       <c r="I27" t="n">
-        <v>40518.438</v>
+        <v>145493.5807</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -1545,16 +1545,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>-14707.0099</v>
+        <v>74006.2314</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>0.4664</v>
       </c>
       <c r="H28" t="n">
-        <v>-54659.8477</v>
+        <v>-23232.0794</v>
       </c>
       <c r="I28" t="n">
-        <v>25245.8279</v>
+        <v>171244.5422</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>224581.6434</v>
+        <v>236621.1562</v>
       </c>
       <c r="G29" t="n">
         <v>0.001</v>
       </c>
       <c r="H29" t="n">
-        <v>187019.838</v>
+        <v>166705.9625</v>
       </c>
       <c r="I29" t="n">
-        <v>262143.4488</v>
+        <v>306536.3499</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>155645.5203</v>
+        <v>236792.6117</v>
       </c>
       <c r="G30" t="n">
         <v>0.001</v>
       </c>
       <c r="H30" t="n">
-        <v>114257.8876</v>
+        <v>157740.7713</v>
       </c>
       <c r="I30" t="n">
-        <v>197033.153</v>
+        <v>315844.4521</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -1665,16 +1665,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>113801.9794</v>
+        <v>142034.1585</v>
       </c>
       <c r="G31" t="n">
         <v>0.001</v>
       </c>
       <c r="H31" t="n">
-        <v>70484.5782</v>
+        <v>61104.8044</v>
       </c>
       <c r="I31" t="n">
-        <v>157119.3806</v>
+        <v>222963.5125</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
@@ -1705,16 +1705,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>147003.8521</v>
+        <v>226474.8881</v>
       </c>
       <c r="G32" t="n">
         <v>0.001</v>
       </c>
       <c r="H32" t="n">
-        <v>97031.1498</v>
+        <v>132792.8325</v>
       </c>
       <c r="I32" t="n">
-        <v>196976.5544</v>
+        <v>320156.9437</v>
       </c>
       <c r="J32" t="b">
         <v>1</v>
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>58084.7965</v>
+        <v>84466.705</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0027</v>
+        <v>0.1318</v>
       </c>
       <c r="H33" t="n">
-        <v>9923.9686</v>
+        <v>-8089.6013</v>
       </c>
       <c r="I33" t="n">
-        <v>106245.6243</v>
+        <v>177023.0112</v>
       </c>
       <c r="J33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1785,16 +1785,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>202839.253</v>
+        <v>193290.9704</v>
       </c>
       <c r="G34" t="n">
         <v>0.001</v>
       </c>
       <c r="H34" t="n">
-        <v>162886.4153</v>
+        <v>120753.1502</v>
       </c>
       <c r="I34" t="n">
-        <v>242792.0908</v>
+        <v>265828.7906</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
@@ -1825,16 +1825,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>-9883.414199999999</v>
+        <v>-60568.7879</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>0.261</v>
       </c>
       <c r="H35" t="n">
-        <v>-47445.2196</v>
+        <v>-132715.8223</v>
       </c>
       <c r="I35" t="n">
-        <v>27678.3912</v>
+        <v>11578.2464</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
@@ -1865,16 +1865,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>-30464.6633</v>
+        <v>-77839.62480000001</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5288</v>
+        <v>0.09810000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>-71852.29610000001</v>
+        <v>-160550.0635</v>
       </c>
       <c r="I36" t="n">
-        <v>10922.9694</v>
+        <v>4870.8139</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
@@ -1905,19 +1905,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>-34759.9821</v>
+        <v>-90541.842</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3504</v>
+        <v>0.0226</v>
       </c>
       <c r="H37" t="n">
-        <v>-78077.3833</v>
+        <v>-175757.9336</v>
       </c>
       <c r="I37" t="n">
-        <v>8557.419099999999</v>
+        <v>-5325.7503</v>
       </c>
       <c r="J37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1945,16 +1945,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>-26540.924</v>
+        <v>-76204.6734</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>0.3885</v>
       </c>
       <c r="H38" t="n">
-        <v>-76513.62639999999</v>
+        <v>-172802.3968</v>
       </c>
       <c r="I38" t="n">
-        <v>23431.7783</v>
+        <v>20393.05</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
@@ -1985,19 +1985,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>-45113.8727</v>
+        <v>-107080.957</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1031</v>
+        <v>0.0133</v>
       </c>
       <c r="H39" t="n">
-        <v>-93274.7006</v>
+        <v>-204319.2678</v>
       </c>
       <c r="I39" t="n">
-        <v>3046.9551</v>
+        <v>-9842.646199999999</v>
       </c>
       <c r="J39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>-8977.617899999999</v>
+        <v>-63648.4278</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>0.2447</v>
       </c>
       <c r="H40" t="n">
-        <v>-48930.4557</v>
+        <v>-138795.1376</v>
       </c>
       <c r="I40" t="n">
-        <v>30975.2199</v>
+        <v>11498.2819</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
@@ -2065,16 +2065,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>94201.6002</v>
+        <v>83026.933</v>
       </c>
       <c r="G41" t="n">
-        <v>0.001</v>
+        <v>0.0047</v>
       </c>
       <c r="H41" t="n">
-        <v>56639.7948</v>
+        <v>12164.2645</v>
       </c>
       <c r="I41" t="n">
-        <v>131763.4056</v>
+        <v>153889.6015</v>
       </c>
       <c r="J41" t="b">
         <v>1</v>
@@ -2105,16 +2105,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>58102.3929</v>
+        <v>87296.4782</v>
       </c>
       <c r="G42" t="n">
-        <v>0.001</v>
+        <v>0.0177</v>
       </c>
       <c r="H42" t="n">
-        <v>16714.7601</v>
+        <v>6507.0839</v>
       </c>
       <c r="I42" t="n">
-        <v>99490.02559999999</v>
+        <v>168085.8725</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
@@ -2145,16 +2145,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>26088.2617</v>
+        <v>43777.0307</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8542999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
-        <v>-17229.1394</v>
+        <v>-42621.7788</v>
       </c>
       <c r="I43" t="n">
-        <v>69405.6629</v>
+        <v>130175.8403</v>
       </c>
       <c r="J43" t="b">
         <v>0</v>
@@ -2185,16 +2185,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>59823.6815</v>
+        <v>105414.5391</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0032</v>
+        <v>0.0187</v>
       </c>
       <c r="H44" t="n">
-        <v>9850.9792</v>
+        <v>7511.9243</v>
       </c>
       <c r="I44" t="n">
-        <v>109796.3838</v>
+        <v>203317.1538</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
@@ -2225,16 +2225,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>15622.8193</v>
+        <v>14270.5337</v>
       </c>
       <c r="G45" t="n">
         <v>0.9</v>
       </c>
       <c r="H45" t="n">
-        <v>-32538.0085</v>
+        <v>-80254.1344</v>
       </c>
       <c r="I45" t="n">
-        <v>63783.6471</v>
+        <v>108795.2018</v>
       </c>
       <c r="J45" t="b">
         <v>0</v>
@@ -2265,16 +2265,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100979.1233</v>
+        <v>97002.30959999999</v>
       </c>
       <c r="G46" t="n">
         <v>0.001</v>
       </c>
       <c r="H46" t="n">
-        <v>61026.2855</v>
+        <v>22569.9305</v>
       </c>
       <c r="I46" t="n">
-        <v>140931.961</v>
+        <v>171434.6888</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
@@ -2305,16 +2305,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>146115.4925</v>
+        <v>117991.0976</v>
       </c>
       <c r="G47" t="n">
-        <v>0.001</v>
+        <v>0.0055</v>
       </c>
       <c r="H47" t="n">
-        <v>94533.208</v>
+        <v>16392.8739</v>
       </c>
       <c r="I47" t="n">
-        <v>197697.7771</v>
+        <v>219589.3212</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
@@ -2345,16 +2345,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>-1537.1459</v>
+        <v>-4345.1125</v>
       </c>
       <c r="G48" t="n">
         <v>0.9</v>
       </c>
       <c r="H48" t="n">
-        <v>-51366.1179</v>
+        <v>-124360.7125</v>
       </c>
       <c r="I48" t="n">
-        <v>48291.826</v>
+        <v>115670.4875</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>-8601.766</v>
+        <v>33997.8241</v>
       </c>
       <c r="G49" t="n">
         <v>0.9</v>
       </c>
       <c r="H49" t="n">
-        <v>-50550.4293</v>
+        <v>-74613.14049999999</v>
       </c>
       <c r="I49" t="n">
-        <v>33346.8973</v>
+        <v>142608.7887</v>
       </c>
       <c r="J49" t="b">
         <v>0</v>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>230686.8873</v>
+        <v>196612.7489</v>
       </c>
       <c r="G50" t="n">
         <v>0.001</v>
       </c>
       <c r="H50" t="n">
-        <v>191008.8036</v>
+        <v>111588.1239</v>
       </c>
       <c r="I50" t="n">
-        <v>270364.9711</v>
+        <v>281637.3739</v>
       </c>
       <c r="J50" t="b">
         <v>1</v>
@@ -2465,16 +2465,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>161750.7642</v>
+        <v>196784.2044</v>
       </c>
       <c r="G51" t="n">
         <v>0.001</v>
       </c>
       <c r="H51" t="n">
-        <v>118433.363</v>
+        <v>104100.6244</v>
       </c>
       <c r="I51" t="n">
-        <v>205068.1654</v>
+        <v>289467.7845</v>
       </c>
       <c r="J51" t="b">
         <v>1</v>
@@ -2505,16 +2505,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>119907.2233</v>
+        <v>102025.7512</v>
       </c>
       <c r="G52" t="n">
-        <v>0.001</v>
+        <v>0.0173</v>
       </c>
       <c r="H52" t="n">
-        <v>74742.4323</v>
+        <v>7735.7046</v>
       </c>
       <c r="I52" t="n">
-        <v>165072.0144</v>
+        <v>196315.7978</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>153109.096</v>
+        <v>186466.4808</v>
       </c>
       <c r="G53" t="n">
         <v>0.001</v>
       </c>
       <c r="H53" t="n">
-        <v>101526.8114</v>
+        <v>81027.4933</v>
       </c>
       <c r="I53" t="n">
-        <v>204691.3805</v>
+        <v>291905.4683</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
@@ -2585,19 +2585,19 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>64190.0404</v>
+        <v>44458.2977</v>
       </c>
       <c r="G54" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
-        <v>14361.0685</v>
+        <v>-59981.7443</v>
       </c>
       <c r="I54" t="n">
-        <v>114019.0123</v>
+        <v>148898.3396</v>
       </c>
       <c r="J54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2625,16 +2625,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>208944.4969</v>
+        <v>153282.5631</v>
       </c>
       <c r="G55" t="n">
         <v>0.001</v>
       </c>
       <c r="H55" t="n">
-        <v>166995.8337</v>
+        <v>66088.59600000001</v>
       </c>
       <c r="I55" t="n">
-        <v>250893.1602</v>
+        <v>240476.5302</v>
       </c>
       <c r="J55" t="b">
         <v>1</v>
@@ -2665,19 +2665,19 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>-3778.1703</v>
+        <v>-100577.1952</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>0.0058</v>
       </c>
       <c r="H56" t="n">
-        <v>-43456.2541</v>
+        <v>-187446.3331</v>
       </c>
       <c r="I56" t="n">
-        <v>35899.9134</v>
+        <v>-13708.0574</v>
       </c>
       <c r="J56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2705,19 +2705,19 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>-24359.4194</v>
+        <v>-117848.0321</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>0.0019</v>
       </c>
       <c r="H57" t="n">
-        <v>-67676.82060000001</v>
+        <v>-213671.1463</v>
       </c>
       <c r="I57" t="n">
-        <v>18957.9817</v>
+        <v>-22024.9179</v>
       </c>
       <c r="J57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2745,19 +2745,19 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>-28654.7382</v>
+        <v>-130550.2493</v>
       </c>
       <c r="G58" t="n">
-        <v>0.776</v>
+        <v>0.001</v>
       </c>
       <c r="H58" t="n">
-        <v>-73819.52929999999</v>
+        <v>-228544.3043</v>
       </c>
       <c r="I58" t="n">
-        <v>16510.0528</v>
+        <v>-32556.1943</v>
       </c>
       <c r="J58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2785,19 +2785,19 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>-20435.6802</v>
+        <v>-116213.0807</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>0.0189</v>
       </c>
       <c r="H59" t="n">
-        <v>-72017.9647</v>
+        <v>-224250.9107</v>
       </c>
       <c r="I59" t="n">
-        <v>31146.6044</v>
+        <v>-8175.2507</v>
       </c>
       <c r="J59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2825,19 +2825,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>-39008.6288</v>
+        <v>-147089.3643</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4059</v>
+        <v>0.001</v>
       </c>
       <c r="H60" t="n">
-        <v>-88837.6007</v>
+        <v>-255700.3289</v>
       </c>
       <c r="I60" t="n">
-        <v>10820.3431</v>
+        <v>-38478.3997</v>
       </c>
       <c r="J60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2865,19 +2865,19 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>-2872.374</v>
+        <v>-103656.8351</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>0.0056</v>
       </c>
       <c r="H61" t="n">
-        <v>-44821.0373</v>
+        <v>-193032.8975</v>
       </c>
       <c r="I61" t="n">
-        <v>39076.2892</v>
+        <v>-14280.7727</v>
       </c>
       <c r="J61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2905,19 +2905,19 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100306.8441</v>
+        <v>43018.5257</v>
       </c>
       <c r="G62" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
-        <v>60628.7604</v>
+        <v>-42786.8957</v>
       </c>
       <c r="I62" t="n">
-        <v>139984.9278</v>
+        <v>128823.947</v>
       </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2945,19 +2945,19 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>64207.6368</v>
+        <v>47288.0709</v>
       </c>
       <c r="G63" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
-        <v>20890.2356</v>
+        <v>-46881.8753</v>
       </c>
       <c r="I63" t="n">
-        <v>107525.038</v>
+        <v>141458.0171</v>
       </c>
       <c r="J63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2985,16 +2985,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>32193.5056</v>
+        <v>3768.6234</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5854</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
-        <v>-12971.2854</v>
+        <v>-95255.6505</v>
       </c>
       <c r="I64" t="n">
-        <v>77358.29670000001</v>
+        <v>102792.8973</v>
       </c>
       <c r="J64" t="b">
         <v>0</v>
@@ -3025,19 +3025,19 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>65928.92539999999</v>
+        <v>65406.1317</v>
       </c>
       <c r="G65" t="n">
-        <v>0.001</v>
+        <v>0.8624000000000001</v>
       </c>
       <c r="H65" t="n">
-        <v>14346.6408</v>
+        <v>-43799.9785</v>
       </c>
       <c r="I65" t="n">
-        <v>117511.2099</v>
+        <v>174612.242</v>
       </c>
       <c r="J65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3065,16 +3065,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>21728.0632</v>
+        <v>-25737.8736</v>
       </c>
       <c r="G66" t="n">
         <v>0.9</v>
       </c>
       <c r="H66" t="n">
-        <v>-28100.9087</v>
+        <v>-131926.2224</v>
       </c>
       <c r="I66" t="n">
-        <v>71557.03509999999</v>
+        <v>80450.4752</v>
       </c>
       <c r="J66" t="b">
         <v>0</v>
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>107084.3671</v>
+        <v>56993.9023</v>
       </c>
       <c r="G67" t="n">
-        <v>0.001</v>
+        <v>0.7576000000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>65135.7039</v>
+        <v>-31782.3986</v>
       </c>
       <c r="I67" t="n">
-        <v>149033.0304</v>
+        <v>145770.2032</v>
       </c>
       <c r="J67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3145,16 +3145,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>-147652.6385</v>
+        <v>-122336.21</v>
       </c>
       <c r="G68" t="n">
-        <v>0.001</v>
+        <v>0.0187</v>
       </c>
       <c r="H68" t="n">
-        <v>-203364.3982</v>
+        <v>-235988.7071</v>
       </c>
       <c r="I68" t="n">
-        <v>-91940.87880000001</v>
+        <v>-8683.713</v>
       </c>
       <c r="J68" t="b">
         <v>1</v>
@@ -3185,19 +3185,19 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>-154717.2585</v>
+        <v>-83993.2735</v>
       </c>
       <c r="G69" t="n">
-        <v>0.001</v>
+        <v>0.2889</v>
       </c>
       <c r="H69" t="n">
-        <v>-203508.2831</v>
+        <v>-185528.9198</v>
       </c>
       <c r="I69" t="n">
-        <v>-105926.234</v>
+        <v>17542.3728</v>
       </c>
       <c r="J69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3225,16 +3225,16 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>84571.39479999999</v>
+        <v>78621.6514</v>
       </c>
       <c r="G70" t="n">
-        <v>0.001</v>
+        <v>0.0314</v>
       </c>
       <c r="H70" t="n">
-        <v>37718.1765</v>
+        <v>2843.4705</v>
       </c>
       <c r="I70" t="n">
-        <v>131424.613</v>
+        <v>154399.8322</v>
       </c>
       <c r="J70" t="b">
         <v>1</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>15635.2717</v>
+        <v>78793.1069</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>0.1053</v>
       </c>
       <c r="H71" t="n">
-        <v>-34337.4307</v>
+        <v>-5488.5154</v>
       </c>
       <c r="I71" t="n">
-        <v>65607.974</v>
+        <v>163074.7291</v>
       </c>
       <c r="J71" t="b">
         <v>0</v>
@@ -3305,16 +3305,16 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>-26208.2692</v>
+        <v>-15965.3464</v>
       </c>
       <c r="G72" t="n">
         <v>0.9</v>
       </c>
       <c r="H72" t="n">
-        <v>-77790.55379999999</v>
+        <v>-102010.4435</v>
       </c>
       <c r="I72" t="n">
-        <v>25374.0153</v>
+        <v>70079.7507</v>
       </c>
       <c r="J72" t="b">
         <v>0</v>
@@ -3345,16 +3345,16 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>6993.6034</v>
+        <v>68475.3832</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>0.622</v>
       </c>
       <c r="H73" t="n">
-        <v>-50291.6984</v>
+        <v>-29659.8598</v>
       </c>
       <c r="I73" t="n">
-        <v>64278.9053</v>
+        <v>166610.6263</v>
       </c>
       <c r="J73" t="b">
         <v>0</v>
@@ -3385,19 +3385,19 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>-81925.4522</v>
+        <v>-73532.7999</v>
       </c>
       <c r="G74" t="n">
-        <v>0.001</v>
+        <v>0.4755</v>
       </c>
       <c r="H74" t="n">
-        <v>-137637.2119</v>
+        <v>-170593.9569</v>
       </c>
       <c r="I74" t="n">
-        <v>-26213.6925</v>
+        <v>23528.3571</v>
       </c>
       <c r="J74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3425,19 +3425,19 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>62829.0044</v>
+        <v>35291.4655</v>
       </c>
       <c r="G75" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
-        <v>14037.9798</v>
+        <v>-42912.9701</v>
       </c>
       <c r="I75" t="n">
-        <v>111620.029</v>
+        <v>113495.9011</v>
       </c>
       <c r="J75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3465,16 +3465,16 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>-149893.6629</v>
+        <v>-218568.2928</v>
       </c>
       <c r="G76" t="n">
         <v>0.001</v>
       </c>
       <c r="H76" t="n">
-        <v>-196746.8811</v>
+        <v>-296410.3955</v>
       </c>
       <c r="I76" t="n">
-        <v>-103040.4446</v>
+        <v>-140726.1901</v>
       </c>
       <c r="J76" t="b">
         <v>1</v>
@@ -3505,16 +3505,16 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>-170474.912</v>
+        <v>-235839.1296</v>
       </c>
       <c r="G77" t="n">
         <v>0.001</v>
       </c>
       <c r="H77" t="n">
-        <v>-220447.6143</v>
+        <v>-323561.5045</v>
       </c>
       <c r="I77" t="n">
-        <v>-120502.2097</v>
+        <v>-148116.7548</v>
       </c>
       <c r="J77" t="b">
         <v>1</v>
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>-174770.2308</v>
+        <v>-248541.3468</v>
       </c>
       <c r="G78" t="n">
         <v>0.001</v>
       </c>
       <c r="H78" t="n">
-        <v>-226352.5153</v>
+        <v>-338630.0845</v>
       </c>
       <c r="I78" t="n">
-        <v>-123187.9462</v>
+        <v>-158452.6091</v>
       </c>
       <c r="J78" t="b">
         <v>1</v>
@@ -3585,16 +3585,16 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>-166551.1727</v>
+        <v>-234204.1783</v>
       </c>
       <c r="G79" t="n">
         <v>0.001</v>
       </c>
       <c r="H79" t="n">
-        <v>-223836.4746</v>
+        <v>-335126.5175</v>
       </c>
       <c r="I79" t="n">
-        <v>-109265.8708</v>
+        <v>-133281.839</v>
       </c>
       <c r="J79" t="b">
         <v>1</v>
@@ -3625,16 +3625,16 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>-185124.1214</v>
+        <v>-265080.4618</v>
       </c>
       <c r="G80" t="n">
         <v>0.001</v>
       </c>
       <c r="H80" t="n">
-        <v>-240835.8811</v>
+        <v>-366616.1081</v>
       </c>
       <c r="I80" t="n">
-        <v>-129412.3617</v>
+        <v>-163544.8155</v>
       </c>
       <c r="J80" t="b">
         <v>1</v>
@@ -3665,16 +3665,16 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>-148987.8666</v>
+        <v>-221647.9327</v>
       </c>
       <c r="G81" t="n">
         <v>0.001</v>
       </c>
       <c r="H81" t="n">
-        <v>-197778.8911</v>
+        <v>-302278.1154</v>
       </c>
       <c r="I81" t="n">
-        <v>-100196.842</v>
+        <v>-141017.7499</v>
       </c>
       <c r="J81" t="b">
         <v>1</v>
@@ -3705,16 +3705,16 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>-45808.6485</v>
+        <v>-74972.5719</v>
       </c>
       <c r="G82" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.0653</v>
       </c>
       <c r="H82" t="n">
-        <v>-92661.8667</v>
+        <v>-151625.7921</v>
       </c>
       <c r="I82" t="n">
-        <v>1044.5698</v>
+        <v>1680.6484</v>
       </c>
       <c r="J82" t="b">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>-81907.8558</v>
+        <v>-70703.0267</v>
       </c>
       <c r="G83" t="n">
-        <v>0.001</v>
+        <v>0.2989</v>
       </c>
       <c r="H83" t="n">
-        <v>-131880.5581</v>
+        <v>-156616.4983</v>
       </c>
       <c r="I83" t="n">
-        <v>-31935.1535</v>
+        <v>15210.445</v>
       </c>
       <c r="J83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3785,16 +3785,16 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>-113921.9869</v>
+        <v>-114222.4741</v>
       </c>
       <c r="G84" t="n">
-        <v>0.001</v>
+        <v>0.0013</v>
       </c>
       <c r="H84" t="n">
-        <v>-165504.2715</v>
+        <v>-205430.7669</v>
       </c>
       <c r="I84" t="n">
-        <v>-62339.7024</v>
+        <v>-23014.1814</v>
       </c>
       <c r="J84" t="b">
         <v>1</v>
@@ -3825,19 +3825,19 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>-80186.5672</v>
+        <v>-52584.9658</v>
       </c>
       <c r="G85" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
-        <v>-137471.869</v>
+        <v>-154756.9794</v>
       </c>
       <c r="I85" t="n">
-        <v>-22901.2653</v>
+        <v>49587.0478</v>
       </c>
       <c r="J85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3865,16 +3865,16 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>-124387.4294</v>
+        <v>-143728.9712</v>
       </c>
       <c r="G86" t="n">
         <v>0.001</v>
       </c>
       <c r="H86" t="n">
-        <v>-180099.1891</v>
+        <v>-242668.9088</v>
       </c>
       <c r="I86" t="n">
-        <v>-68675.66959999999</v>
+        <v>-44789.0335</v>
       </c>
       <c r="J86" t="b">
         <v>1</v>
@@ -3905,16 +3905,16 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>-39031.1254</v>
+        <v>-60997.1952</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3573</v>
+        <v>0.4618</v>
       </c>
       <c r="H87" t="n">
-        <v>-87822.14999999999</v>
+        <v>-140962.0466</v>
       </c>
       <c r="I87" t="n">
-        <v>9759.8992</v>
+        <v>18967.6561</v>
       </c>
       <c r="J87" t="b">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>-7064.6201</v>
+        <v>38342.9366</v>
       </c>
       <c r="G88" t="n">
         <v>0.9</v>
       </c>
       <c r="H88" t="n">
-        <v>-53998.1735</v>
+        <v>-81619.6937</v>
       </c>
       <c r="I88" t="n">
-        <v>39868.9334</v>
+        <v>158305.5668</v>
       </c>
       <c r="J88" t="b">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>232224.0333</v>
+        <v>200957.8614</v>
       </c>
       <c r="G89" t="n">
         <v>0.001</v>
       </c>
       <c r="H89" t="n">
-        <v>187308.352</v>
+        <v>101842.3838</v>
       </c>
       <c r="I89" t="n">
-        <v>277139.7145</v>
+        <v>300073.3389</v>
       </c>
       <c r="J89" t="b">
         <v>1</v>
@@ -4025,16 +4025,16 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>163287.9101</v>
+        <v>201129.3169</v>
       </c>
       <c r="G90" t="n">
         <v>0.001</v>
       </c>
       <c r="H90" t="n">
-        <v>115127.0823</v>
+        <v>95370.4541</v>
       </c>
       <c r="I90" t="n">
-        <v>211448.738</v>
+        <v>306888.1796</v>
       </c>
       <c r="J90" t="b">
         <v>1</v>
@@ -4065,19 +4065,19 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>121444.3693</v>
+        <v>106370.8636</v>
       </c>
       <c r="G91" t="n">
-        <v>0.001</v>
+        <v>0.0548</v>
       </c>
       <c r="H91" t="n">
-        <v>71615.3974</v>
+        <v>-798.6466</v>
       </c>
       <c r="I91" t="n">
-        <v>171273.3412</v>
+        <v>213540.3739</v>
       </c>
       <c r="J91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4105,16 +4105,16 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>154646.2419</v>
+        <v>190811.5933</v>
       </c>
       <c r="G92" t="n">
         <v>0.001</v>
       </c>
       <c r="H92" t="n">
-        <v>98934.4822</v>
+        <v>73713.0402</v>
       </c>
       <c r="I92" t="n">
-        <v>210358.0016</v>
+        <v>307910.1463</v>
       </c>
       <c r="J92" t="b">
         <v>1</v>
@@ -4145,19 +4145,19 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>65727.1863</v>
+        <v>48803.4101</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0024</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
-        <v>11634.7235</v>
+        <v>-67396.4754</v>
       </c>
       <c r="I93" t="n">
-        <v>119819.6491</v>
+        <v>165003.2957</v>
       </c>
       <c r="J93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4185,16 +4185,16 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>210481.6429</v>
+        <v>157627.6755</v>
       </c>
       <c r="G94" t="n">
         <v>0.001</v>
       </c>
       <c r="H94" t="n">
-        <v>163548.0894</v>
+        <v>56645.108</v>
       </c>
       <c r="I94" t="n">
-        <v>257415.1963</v>
+        <v>258610.243</v>
       </c>
       <c r="J94" t="b">
         <v>1</v>
@@ -4225,16 +4225,16 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>-2241.0244</v>
+        <v>-96232.0828</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>-47156.7056</v>
+        <v>-196934.3079</v>
       </c>
       <c r="I95" t="n">
-        <v>42674.6569</v>
+        <v>4470.1423</v>
       </c>
       <c r="J95" t="b">
         <v>0</v>
@@ -4265,19 +4265,19 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>-22822.2735</v>
+        <v>-113502.9196</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>0.0281</v>
       </c>
       <c r="H96" t="n">
-        <v>-70983.10129999999</v>
+        <v>-222023.7022</v>
       </c>
       <c r="I96" t="n">
-        <v>25338.5543</v>
+        <v>-4982.1371</v>
       </c>
       <c r="J96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4305,19 +4305,19 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>-27117.5923</v>
+        <v>-126205.1368</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>0.0073</v>
       </c>
       <c r="H97" t="n">
-        <v>-76946.56419999999</v>
+        <v>-236647.5465</v>
       </c>
       <c r="I97" t="n">
-        <v>22711.3796</v>
+        <v>-15762.7271</v>
       </c>
       <c r="J97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4345,16 +4345,16 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>-18898.5342</v>
+        <v>-111867.9682</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>0.1033</v>
       </c>
       <c r="H98" t="n">
-        <v>-74610.2939</v>
+        <v>-231311.9457</v>
       </c>
       <c r="I98" t="n">
-        <v>36813.2255</v>
+        <v>7576.0092</v>
       </c>
       <c r="J98" t="b">
         <v>0</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>-37471.4829</v>
+        <v>-142744.2518</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6343</v>
+        <v>0.0035</v>
       </c>
       <c r="H99" t="n">
-        <v>-91563.9457</v>
+        <v>-262706.8821</v>
       </c>
       <c r="I99" t="n">
-        <v>16620.9799</v>
+        <v>-22781.6215</v>
       </c>
       <c r="J99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -4425,16 +4425,16 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>-1335.2281</v>
+        <v>-99311.7227</v>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="H100" t="n">
-        <v>-48268.7815</v>
+        <v>-202184.3214</v>
       </c>
       <c r="I100" t="n">
-        <v>45598.3254</v>
+        <v>3560.876</v>
       </c>
       <c r="J100" t="b">
         <v>0</v>
@@ -4465,19 +4465,19 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>101843.99</v>
+        <v>47363.6381</v>
       </c>
       <c r="G101" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
-        <v>56928.3088</v>
+        <v>-52422.4399</v>
       </c>
       <c r="I101" t="n">
-        <v>146759.6713</v>
+        <v>147149.7162</v>
       </c>
       <c r="J101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4505,19 +4505,19 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>65744.7827</v>
+        <v>51633.1834</v>
       </c>
       <c r="G102" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
-        <v>17583.9549</v>
+        <v>-55430.6752</v>
       </c>
       <c r="I102" t="n">
-        <v>113905.6105</v>
+        <v>158697.0419</v>
       </c>
       <c r="J102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4545,16 +4545,16 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>33730.6516</v>
+        <v>8113.7359</v>
       </c>
       <c r="G103" t="n">
-        <v>0.6727</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
-        <v>-16098.3203</v>
+        <v>-103243.7869</v>
       </c>
       <c r="I103" t="n">
-        <v>83559.6235</v>
+        <v>119471.2586</v>
       </c>
       <c r="J103" t="b">
         <v>0</v>
@@ -4585,19 +4585,19 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>67466.0713</v>
+        <v>69751.2442</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0025</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
-        <v>11754.3116</v>
+        <v>-50750.4801</v>
       </c>
       <c r="I104" t="n">
-        <v>123177.831</v>
+        <v>190252.9685</v>
       </c>
       <c r="J104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4625,16 +4625,16 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>23265.2091</v>
+        <v>-21392.7611</v>
       </c>
       <c r="G105" t="n">
         <v>0.9</v>
       </c>
       <c r="H105" t="n">
-        <v>-30827.2537</v>
+        <v>-139166.5123</v>
       </c>
       <c r="I105" t="n">
-        <v>77357.6719</v>
+        <v>96380.99000000001</v>
       </c>
       <c r="J105" t="b">
         <v>0</v>
@@ -4665,19 +4665,19 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>108621.5131</v>
+        <v>61339.0148</v>
       </c>
       <c r="G106" t="n">
-        <v>0.001</v>
+        <v>0.8615</v>
       </c>
       <c r="H106" t="n">
-        <v>61687.9596</v>
+        <v>-41012.94</v>
       </c>
       <c r="I106" t="n">
-        <v>155555.0666</v>
+        <v>163690.9695</v>
       </c>
       <c r="J106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4705,16 +4705,16 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>239288.6533</v>
+        <v>162614.9248</v>
       </c>
       <c r="G107" t="n">
         <v>0.001</v>
       </c>
       <c r="H107" t="n">
-        <v>203313.9076</v>
+        <v>77665.08500000001</v>
       </c>
       <c r="I107" t="n">
-        <v>275263.399</v>
+        <v>247564.7646</v>
       </c>
       <c r="J107" t="b">
         <v>1</v>
@@ -4745,16 +4745,16 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>170352.5302</v>
+        <v>162786.3803</v>
       </c>
       <c r="G108" t="n">
         <v>0.001</v>
       </c>
       <c r="H108" t="n">
-        <v>130399.6924</v>
+        <v>70171.4008</v>
       </c>
       <c r="I108" t="n">
-        <v>210305.368</v>
+        <v>255401.3599</v>
       </c>
       <c r="J108" t="b">
         <v>1</v>
@@ -4785,19 +4785,19 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>128508.9893</v>
+        <v>68027.9271</v>
       </c>
       <c r="G109" t="n">
-        <v>0.001</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H109" t="n">
-        <v>86560.32610000001</v>
+        <v>-26194.6886</v>
       </c>
       <c r="I109" t="n">
-        <v>170457.6526</v>
+        <v>162250.5428</v>
       </c>
       <c r="J109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4825,16 +4825,16 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>161710.862</v>
+        <v>152468.6567</v>
       </c>
       <c r="G110" t="n">
         <v>0.001</v>
       </c>
       <c r="H110" t="n">
-        <v>112919.8374</v>
+        <v>47089.9657</v>
       </c>
       <c r="I110" t="n">
-        <v>210501.8865</v>
+        <v>257847.3477</v>
       </c>
       <c r="J110" t="b">
         <v>1</v>
@@ -4865,19 +4865,19 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>72791.8064</v>
+        <v>10460.4736</v>
       </c>
       <c r="G111" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
-        <v>25858.2529</v>
+        <v>-93918.6948</v>
       </c>
       <c r="I111" t="n">
-        <v>119725.3598</v>
+        <v>114839.6419</v>
       </c>
       <c r="J111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4905,16 +4905,16 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>217546.2629</v>
+        <v>119284.739</v>
       </c>
       <c r="G112" t="n">
         <v>0.001</v>
       </c>
       <c r="H112" t="n">
-        <v>179081.7033</v>
+        <v>32163.6949</v>
       </c>
       <c r="I112" t="n">
-        <v>256010.8226</v>
+        <v>206405.7831</v>
       </c>
       <c r="J112" t="b">
         <v>1</v>
@@ -4945,19 +4945,19 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4823.5957</v>
+        <v>-134575.0193</v>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H113" t="n">
-        <v>-31151.15</v>
+        <v>-221370.9612</v>
       </c>
       <c r="I113" t="n">
-        <v>40798.3414</v>
+        <v>-47779.0774</v>
       </c>
       <c r="J113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -4985,19 +4985,19 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>-15757.6534</v>
+        <v>-151845.8562</v>
       </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H114" t="n">
-        <v>-55710.4912</v>
+        <v>-247602.6191</v>
       </c>
       <c r="I114" t="n">
-        <v>24195.1843</v>
+        <v>-56089.0933</v>
       </c>
       <c r="J114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -5025,19 +5025,19 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>-20052.9722</v>
+        <v>-164548.0734</v>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H115" t="n">
-        <v>-62001.6355</v>
+        <v>-262477.248</v>
       </c>
       <c r="I115" t="n">
-        <v>21895.691</v>
+        <v>-66618.89870000001</v>
       </c>
       <c r="J115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -5065,19 +5065,19 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>-11833.9142</v>
+        <v>-150210.9048</v>
       </c>
       <c r="G116" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H116" t="n">
-        <v>-60624.9387</v>
+        <v>-258189.8895</v>
       </c>
       <c r="I116" t="n">
-        <v>36957.1104</v>
+        <v>-42231.9201</v>
       </c>
       <c r="J116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -5105,19 +5105,19 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>-30406.8628</v>
+        <v>-181087.1884</v>
       </c>
       <c r="G117" t="n">
-        <v>0.7433999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="H117" t="n">
-        <v>-77340.4163</v>
+        <v>-289639.6183</v>
       </c>
       <c r="I117" t="n">
-        <v>16526.6906</v>
+        <v>-72534.75840000001</v>
       </c>
       <c r="J117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -5145,19 +5145,19 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>5729.392</v>
+        <v>-137654.6592</v>
       </c>
       <c r="G118" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H118" t="n">
-        <v>-32735.1677</v>
+        <v>-226959.5804</v>
       </c>
       <c r="I118" t="n">
-        <v>44193.9516</v>
+        <v>-48349.738</v>
       </c>
       <c r="J118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -5185,19 +5185,19 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>108908.6101</v>
+        <v>9020.7016</v>
       </c>
       <c r="G119" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
-        <v>72933.86440000001</v>
+        <v>-76710.61569999999</v>
       </c>
       <c r="I119" t="n">
-        <v>144883.3558</v>
+        <v>94752.01880000001</v>
       </c>
       <c r="J119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -5225,19 +5225,19 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>72809.4028</v>
+        <v>13290.2468</v>
       </c>
       <c r="G120" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
-        <v>32856.565</v>
+        <v>-80812.1825</v>
       </c>
       <c r="I120" t="n">
-        <v>112762.2405</v>
+        <v>107392.6761</v>
       </c>
       <c r="J120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -5265,16 +5265,16 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>40795.2716</v>
+        <v>-30229.2007</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0698</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
-        <v>-1153.3916</v>
+        <v>-129189.2697</v>
       </c>
       <c r="I121" t="n">
-        <v>82743.93489999999</v>
+        <v>68730.8683</v>
       </c>
       <c r="J121" t="b">
         <v>0</v>
@@ -5305,19 +5305,19 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>74530.6914</v>
+        <v>31408.3077</v>
       </c>
       <c r="G122" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
-        <v>25739.6668</v>
+        <v>-77739.58719999999</v>
       </c>
       <c r="I122" t="n">
-        <v>123321.716</v>
+        <v>140556.2025</v>
       </c>
       <c r="J122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -5345,16 +5345,16 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>30329.8292</v>
+        <v>-59735.6977</v>
       </c>
       <c r="G123" t="n">
-        <v>0.7474</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
-        <v>-16603.7243</v>
+        <v>-165864.1757</v>
       </c>
       <c r="I123" t="n">
-        <v>77263.3826</v>
+        <v>46392.7803</v>
       </c>
       <c r="J123" t="b">
         <v>0</v>
@@ -5385,19 +5385,19 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>115686.1331</v>
+        <v>22996.0782</v>
       </c>
       <c r="G124" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
-        <v>77221.5735</v>
+        <v>-65708.6005</v>
       </c>
       <c r="I124" t="n">
-        <v>154150.6928</v>
+        <v>111700.757</v>
       </c>
       <c r="J124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5425,19 +5425,19 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>-68936.1231</v>
+        <v>171.4555</v>
       </c>
       <c r="G125" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H125" t="n">
-        <v>-106497.9285</v>
+        <v>-63156.103</v>
       </c>
       <c r="I125" t="n">
-        <v>-31374.3177</v>
+        <v>63499.014</v>
       </c>
       <c r="J125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5465,16 +5465,16 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>-110779.664</v>
+        <v>-94586.99770000001</v>
       </c>
       <c r="G126" t="n">
         <v>0.001</v>
       </c>
       <c r="H126" t="n">
-        <v>-150457.7477</v>
+        <v>-160243.2734</v>
       </c>
       <c r="I126" t="n">
-        <v>-71101.5803</v>
+        <v>-28930.7221</v>
       </c>
       <c r="J126" t="b">
         <v>1</v>
@@ -5505,19 +5505,19 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>-77577.7914</v>
+        <v>-10146.2681</v>
       </c>
       <c r="G127" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
-        <v>-124431.0096</v>
+        <v>-91001.1612</v>
       </c>
       <c r="I127" t="n">
-        <v>-30724.5731</v>
+        <v>70708.625</v>
       </c>
       <c r="J127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5545,16 +5545,16 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>-166496.847</v>
+        <v>-152154.4512</v>
       </c>
       <c r="G128" t="n">
         <v>0.001</v>
       </c>
       <c r="H128" t="n">
-        <v>-211412.5282</v>
+        <v>-231702.2734</v>
       </c>
       <c r="I128" t="n">
-        <v>-121581.1657</v>
+        <v>-72606.62910000001</v>
       </c>
       <c r="J128" t="b">
         <v>1</v>
@@ -5585,16 +5585,16 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>-21742.3904</v>
+        <v>-43330.1859</v>
       </c>
       <c r="G129" t="n">
-        <v>0.8492</v>
+        <v>0.3908</v>
       </c>
       <c r="H129" t="n">
-        <v>-57717.1361</v>
+        <v>-98311.2876</v>
       </c>
       <c r="I129" t="n">
-        <v>14232.3553</v>
+        <v>11650.9159</v>
       </c>
       <c r="J129" t="b">
         <v>0</v>
@@ -5625,16 +5625,16 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>-234465.0576</v>
+        <v>-297189.9442</v>
       </c>
       <c r="G130" t="n">
         <v>0.001</v>
       </c>
       <c r="H130" t="n">
-        <v>-267764.3415</v>
+        <v>-351654.4349</v>
       </c>
       <c r="I130" t="n">
-        <v>-201165.7737</v>
+        <v>-242725.4534</v>
       </c>
       <c r="J130" t="b">
         <v>1</v>
@@ -5665,16 +5665,16 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>-255046.3068</v>
+        <v>-314460.781</v>
       </c>
       <c r="G131" t="n">
         <v>0.001</v>
       </c>
       <c r="H131" t="n">
-        <v>-292608.1122</v>
+        <v>-382300.3186</v>
       </c>
       <c r="I131" t="n">
-        <v>-217484.5014</v>
+        <v>-246621.2434</v>
       </c>
       <c r="J131" t="b">
         <v>1</v>
@@ -5705,16 +5705,16 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>-259341.6256</v>
+        <v>-327162.9982</v>
       </c>
       <c r="G132" t="n">
         <v>0.001</v>
       </c>
       <c r="H132" t="n">
-        <v>-299019.7093</v>
+        <v>-398035.9018</v>
       </c>
       <c r="I132" t="n">
-        <v>-219663.5418</v>
+        <v>-256290.0946</v>
       </c>
       <c r="J132" t="b">
         <v>1</v>
@@ -5745,16 +5745,16 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>-251122.5675</v>
+        <v>-312825.8296</v>
       </c>
       <c r="G133" t="n">
         <v>0.001</v>
       </c>
       <c r="H133" t="n">
-        <v>-297975.7857</v>
+        <v>-397041.6616</v>
       </c>
       <c r="I133" t="n">
-        <v>-204269.3492</v>
+        <v>-228609.9976</v>
       </c>
       <c r="J133" t="b">
         <v>1</v>
@@ -5785,16 +5785,16 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>-269695.5162</v>
+        <v>-343702.1132</v>
       </c>
       <c r="G134" t="n">
         <v>0.001</v>
       </c>
       <c r="H134" t="n">
-        <v>-314611.1974</v>
+        <v>-428651.953</v>
       </c>
       <c r="I134" t="n">
-        <v>-224779.8349</v>
+        <v>-258752.2734</v>
       </c>
       <c r="J134" t="b">
         <v>1</v>
@@ -5825,16 +5825,16 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>-233559.2613</v>
+        <v>-300269.584</v>
       </c>
       <c r="G135" t="n">
         <v>0.001</v>
       </c>
       <c r="H135" t="n">
-        <v>-269534.0071</v>
+        <v>-358649.4965</v>
       </c>
       <c r="I135" t="n">
-        <v>-197584.5156</v>
+        <v>-241889.6716</v>
       </c>
       <c r="J135" t="b">
         <v>1</v>
@@ -5865,16 +5865,16 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>-130380.0432</v>
+        <v>-153594.2232</v>
       </c>
       <c r="G136" t="n">
         <v>0.001</v>
       </c>
       <c r="H136" t="n">
-        <v>-163679.3271</v>
+        <v>-206345.5643</v>
       </c>
       <c r="I136" t="n">
-        <v>-97080.75930000001</v>
+        <v>-100842.8822</v>
       </c>
       <c r="J136" t="b">
         <v>1</v>
@@ -5905,16 +5905,16 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>-166479.2506</v>
+        <v>-149324.678</v>
       </c>
       <c r="G137" t="n">
         <v>0.001</v>
       </c>
       <c r="H137" t="n">
-        <v>-204041.056</v>
+        <v>-214808.3586</v>
       </c>
       <c r="I137" t="n">
-        <v>-128917.4451</v>
+        <v>-83840.99739999999</v>
       </c>
       <c r="J137" t="b">
         <v>1</v>
@@ -5945,16 +5945,16 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>-198493.3817</v>
+        <v>-192844.1255</v>
       </c>
       <c r="G138" t="n">
         <v>0.001</v>
       </c>
       <c r="H138" t="n">
-        <v>-238171.4654</v>
+        <v>-265134.7921</v>
       </c>
       <c r="I138" t="n">
-        <v>-158815.298</v>
+        <v>-120553.4589</v>
       </c>
       <c r="J138" t="b">
         <v>1</v>
@@ -5985,16 +5985,16 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>-164757.9619</v>
+        <v>-131206.6172</v>
       </c>
       <c r="G139" t="n">
         <v>0.001</v>
       </c>
       <c r="H139" t="n">
-        <v>-211611.1802</v>
+        <v>-216916.0576</v>
       </c>
       <c r="I139" t="n">
-        <v>-117904.7437</v>
+        <v>-45497.1768</v>
       </c>
       <c r="J139" t="b">
         <v>1</v>
@@ -6025,16 +6025,16 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>-208958.8241</v>
+        <v>-222350.6225</v>
       </c>
       <c r="G140" t="n">
         <v>0.001</v>
       </c>
       <c r="H140" t="n">
-        <v>-253874.5054</v>
+        <v>-304180.3181</v>
       </c>
       <c r="I140" t="n">
-        <v>-164043.1429</v>
+        <v>-140520.927</v>
       </c>
       <c r="J140" t="b">
         <v>1</v>
@@ -6065,16 +6065,16 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>-123602.5202</v>
+        <v>-139618.8466</v>
       </c>
       <c r="G141" t="n">
         <v>0.001</v>
       </c>
       <c r="H141" t="n">
-        <v>-159577.2659</v>
+        <v>-197076.3549</v>
       </c>
       <c r="I141" t="n">
-        <v>-87627.7745</v>
+        <v>-82161.3383</v>
       </c>
       <c r="J141" t="b">
         <v>1</v>
@@ -6105,19 +6105,19 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>-41843.5409</v>
+        <v>-94758.4532</v>
       </c>
       <c r="G142" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.0012</v>
       </c>
       <c r="H142" t="n">
-        <v>-85160.9421</v>
+        <v>-170069.8448</v>
       </c>
       <c r="I142" t="n">
-        <v>1473.8603</v>
+        <v>-19447.0617</v>
       </c>
       <c r="J142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -6145,16 +6145,16 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>-8641.6682</v>
+        <v>-10317.7236</v>
       </c>
       <c r="G143" t="n">
         <v>0.9</v>
       </c>
       <c r="H143" t="n">
-        <v>-58614.3705</v>
+        <v>-99191.6394</v>
       </c>
       <c r="I143" t="n">
-        <v>41331.0341</v>
+        <v>78556.1921</v>
       </c>
       <c r="J143" t="b">
         <v>0</v>
@@ -6185,16 +6185,16 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>-97560.72380000001</v>
+        <v>-152325.9068</v>
       </c>
       <c r="G144" t="n">
         <v>0.001</v>
       </c>
       <c r="H144" t="n">
-        <v>-145721.5517</v>
+        <v>-240012.3662</v>
       </c>
       <c r="I144" t="n">
-        <v>-49399.896</v>
+        <v>-64639.4473</v>
       </c>
       <c r="J144" t="b">
         <v>1</v>
@@ -6225,19 +6225,19 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>47193.7327</v>
+        <v>-43501.6414</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0041</v>
+        <v>0.7211</v>
       </c>
       <c r="H145" t="n">
-        <v>7240.8949</v>
+        <v>-109713.2771</v>
       </c>
       <c r="I145" t="n">
-        <v>87146.5705</v>
+        <v>22709.9944</v>
       </c>
       <c r="J145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -6265,16 +6265,16 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>-165528.9345</v>
+        <v>-297361.3997</v>
       </c>
       <c r="G146" t="n">
         <v>0.001</v>
       </c>
       <c r="H146" t="n">
-        <v>-203090.7399</v>
+        <v>-363144.6796</v>
       </c>
       <c r="I146" t="n">
-        <v>-127967.1291</v>
+        <v>-231578.1198</v>
       </c>
       <c r="J146" t="b">
         <v>1</v>
@@ -6305,16 +6305,16 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>-186110.1836</v>
+        <v>-314632.2365</v>
       </c>
       <c r="G147" t="n">
         <v>0.001</v>
       </c>
       <c r="H147" t="n">
-        <v>-227497.8164</v>
+        <v>-391854.3967</v>
       </c>
       <c r="I147" t="n">
-        <v>-144722.5509</v>
+        <v>-237410.0763</v>
       </c>
       <c r="J147" t="b">
         <v>1</v>
@@ -6345,16 +6345,16 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>-190405.5024</v>
+        <v>-327334.4537</v>
       </c>
       <c r="G148" t="n">
         <v>0.001</v>
       </c>
       <c r="H148" t="n">
-        <v>-233722.9036</v>
+        <v>-407234.564</v>
       </c>
       <c r="I148" t="n">
-        <v>-147088.1012</v>
+        <v>-247434.3434</v>
       </c>
       <c r="J148" t="b">
         <v>1</v>
@@ -6385,16 +6385,16 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>-182186.4444</v>
+        <v>-312997.2851</v>
       </c>
       <c r="G149" t="n">
         <v>0.001</v>
       </c>
       <c r="H149" t="n">
-        <v>-232159.1467</v>
+        <v>-404939.4709</v>
       </c>
       <c r="I149" t="n">
-        <v>-132213.742</v>
+        <v>-221055.0994</v>
       </c>
       <c r="J149" t="b">
         <v>1</v>
@@ -6425,16 +6425,16 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>-200759.393</v>
+        <v>-343873.5687</v>
       </c>
       <c r="G150" t="n">
         <v>0.001</v>
       </c>
       <c r="H150" t="n">
-        <v>-248920.2209</v>
+        <v>-436488.5482</v>
       </c>
       <c r="I150" t="n">
-        <v>-152598.5652</v>
+        <v>-251258.5891</v>
       </c>
       <c r="J150" t="b">
         <v>1</v>
@@ -6465,16 +6465,16 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>-164623.1382</v>
+        <v>-300441.0395</v>
       </c>
       <c r="G151" t="n">
         <v>0.001</v>
       </c>
       <c r="H151" t="n">
-        <v>-204575.976</v>
+        <v>-369500.9652</v>
       </c>
       <c r="I151" t="n">
-        <v>-124670.3004</v>
+        <v>-231381.1138</v>
       </c>
       <c r="J151" t="b">
         <v>1</v>
@@ -6505,16 +6505,16 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>-61443.9201</v>
+        <v>-153765.6787</v>
       </c>
       <c r="G152" t="n">
         <v>0.001</v>
       </c>
       <c r="H152" t="n">
-        <v>-99005.7255</v>
+        <v>-218137.7467</v>
       </c>
       <c r="I152" t="n">
-        <v>-23882.1147</v>
+        <v>-89393.6107</v>
       </c>
       <c r="J152" t="b">
         <v>1</v>
@@ -6545,16 +6545,16 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>-97543.1274</v>
+        <v>-149496.1335</v>
       </c>
       <c r="G153" t="n">
         <v>0.001</v>
       </c>
       <c r="H153" t="n">
-        <v>-138930.7602</v>
+        <v>-224657.1046</v>
       </c>
       <c r="I153" t="n">
-        <v>-56155.4947</v>
+        <v>-74335.1624</v>
       </c>
       <c r="J153" t="b">
         <v>1</v>
@@ -6585,16 +6585,16 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>-129557.2586</v>
+        <v>-193015.581</v>
       </c>
       <c r="G154" t="n">
         <v>0.001</v>
       </c>
       <c r="H154" t="n">
-        <v>-172874.6598</v>
+        <v>-274175.9139</v>
       </c>
       <c r="I154" t="n">
-        <v>-86239.85739999999</v>
+        <v>-111855.2481</v>
       </c>
       <c r="J154" t="b">
         <v>1</v>
@@ -6625,16 +6625,16 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>-95821.8388</v>
+        <v>-131378.0727</v>
       </c>
       <c r="G155" t="n">
         <v>0.001</v>
       </c>
       <c r="H155" t="n">
-        <v>-145794.5411</v>
+        <v>-224690.2762</v>
       </c>
       <c r="I155" t="n">
-        <v>-45849.1365</v>
+        <v>-38065.8691</v>
       </c>
       <c r="J155" t="b">
         <v>1</v>
@@ -6665,16 +6665,16 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>-140022.701</v>
+        <v>-222522.078</v>
       </c>
       <c r="G156" t="n">
         <v>0.001</v>
       </c>
       <c r="H156" t="n">
-        <v>-188183.5289</v>
+        <v>-312283.7527</v>
       </c>
       <c r="I156" t="n">
-        <v>-91861.8732</v>
+        <v>-132760.4034</v>
       </c>
       <c r="J156" t="b">
         <v>1</v>
@@ -6705,16 +6705,16 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>-54666.3971</v>
+        <v>-139790.3021</v>
       </c>
       <c r="G157" t="n">
         <v>0.001</v>
       </c>
       <c r="H157" t="n">
-        <v>-94619.23480000001</v>
+        <v>-208072.2501</v>
       </c>
       <c r="I157" t="n">
-        <v>-14713.5593</v>
+        <v>-71508.3541</v>
       </c>
       <c r="J157" t="b">
         <v>1</v>
@@ -6745,16 +6745,16 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>33201.8726</v>
+        <v>84440.72960000001</v>
       </c>
       <c r="G158" t="n">
-        <v>0.7536</v>
+        <v>0.1081</v>
       </c>
       <c r="H158" t="n">
-        <v>-18380.4119</v>
+        <v>-6107.2674</v>
       </c>
       <c r="I158" t="n">
-        <v>84784.1572</v>
+        <v>174988.7267</v>
       </c>
       <c r="J158" t="b">
         <v>0</v>
@@ -6785,19 +6785,19 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>-55717.183</v>
+        <v>-57567.4535</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0104</v>
+        <v>0.7526</v>
       </c>
       <c r="H159" t="n">
-        <v>-105546.1549</v>
+        <v>-146950.2373</v>
       </c>
       <c r="I159" t="n">
-        <v>-5888.2111</v>
+        <v>31815.3303</v>
       </c>
       <c r="J159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6825,19 +6825,19 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>89037.2736</v>
+        <v>51256.8119</v>
       </c>
       <c r="G160" t="n">
-        <v>0.001</v>
+        <v>0.4976</v>
       </c>
       <c r="H160" t="n">
-        <v>47088.6103</v>
+        <v>-17185.4819</v>
       </c>
       <c r="I160" t="n">
-        <v>130985.9369</v>
+        <v>119699.1057</v>
       </c>
       <c r="J160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -6865,16 +6865,16 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>-123685.3936</v>
+        <v>-202602.9464</v>
       </c>
       <c r="G161" t="n">
         <v>0.001</v>
       </c>
       <c r="H161" t="n">
-        <v>-163363.4774</v>
+        <v>-270630.9317</v>
       </c>
       <c r="I161" t="n">
-        <v>-84007.30989999999</v>
+        <v>-134574.9611</v>
       </c>
       <c r="J161" t="b">
         <v>1</v>
@@ -6905,16 +6905,16 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>-144266.6428</v>
+        <v>-219873.7833</v>
       </c>
       <c r="G162" t="n">
         <v>0.001</v>
       </c>
       <c r="H162" t="n">
-        <v>-187584.044</v>
+        <v>-299016.8745</v>
       </c>
       <c r="I162" t="n">
-        <v>-100949.2416</v>
+        <v>-140730.692</v>
       </c>
       <c r="J162" t="b">
         <v>1</v>
@@ -6945,16 +6945,16 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>-148561.9616</v>
+        <v>-232576.0004</v>
       </c>
       <c r="G163" t="n">
         <v>0.001</v>
       </c>
       <c r="H163" t="n">
-        <v>-193726.7526</v>
+        <v>-314334.1468</v>
       </c>
       <c r="I163" t="n">
-        <v>-103397.1705</v>
+        <v>-150817.8541</v>
       </c>
       <c r="J163" t="b">
         <v>1</v>
@@ -6985,16 +6985,16 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>-140342.9035</v>
+        <v>-218238.8319</v>
       </c>
       <c r="G164" t="n">
         <v>0.001</v>
       </c>
       <c r="H164" t="n">
-        <v>-191925.188</v>
+        <v>-311800.2149</v>
       </c>
       <c r="I164" t="n">
-        <v>-88760.6189</v>
+        <v>-124677.4488</v>
       </c>
       <c r="J164" t="b">
         <v>1</v>
@@ -7025,16 +7025,16 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>-158915.8522</v>
+        <v>-249115.1154</v>
       </c>
       <c r="G165" t="n">
         <v>0.001</v>
       </c>
       <c r="H165" t="n">
-        <v>-208744.8241</v>
+        <v>-343337.7312</v>
       </c>
       <c r="I165" t="n">
-        <v>-109086.8803</v>
+        <v>-154892.4997</v>
       </c>
       <c r="J165" t="b">
         <v>1</v>
@@ -7065,16 +7065,16 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>-122779.5973</v>
+        <v>-205682.5863</v>
       </c>
       <c r="G166" t="n">
         <v>0.001</v>
       </c>
       <c r="H166" t="n">
-        <v>-164728.2606</v>
+        <v>-276883.9922</v>
       </c>
       <c r="I166" t="n">
-        <v>-80830.9341</v>
+        <v>-134481.1803</v>
       </c>
       <c r="J166" t="b">
         <v>1</v>
@@ -7105,16 +7105,16 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>-19600.3792</v>
+        <v>-59007.2255</v>
       </c>
       <c r="G167" t="n">
-        <v>0.9</v>
+        <v>0.1741</v>
       </c>
       <c r="H167" t="n">
-        <v>-59278.463</v>
+        <v>-125671.5339</v>
       </c>
       <c r="I167" t="n">
-        <v>20077.7045</v>
+        <v>7657.0829</v>
       </c>
       <c r="J167" t="b">
         <v>0</v>
@@ -7145,19 +7145,19 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>-55699.5866</v>
+        <v>-54737.6803</v>
       </c>
       <c r="G168" t="n">
-        <v>0.001</v>
+        <v>0.5931</v>
       </c>
       <c r="H168" t="n">
-        <v>-99016.9878</v>
+        <v>-131870.9316</v>
       </c>
       <c r="I168" t="n">
-        <v>-12382.1854</v>
+        <v>22395.571</v>
       </c>
       <c r="J168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -7185,16 +7185,16 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>-87713.71769999999</v>
+        <v>-98257.1278</v>
       </c>
       <c r="G169" t="n">
-        <v>0.001</v>
+        <v>0.0039</v>
       </c>
       <c r="H169" t="n">
-        <v>-132878.5087</v>
+        <v>-181247.2869</v>
       </c>
       <c r="I169" t="n">
-        <v>-42548.9267</v>
+        <v>-15266.9686</v>
       </c>
       <c r="J169" t="b">
         <v>1</v>
@@ -7225,19 +7225,19 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>-53978.2979</v>
+        <v>-36619.6194</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0279</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
-        <v>-105560.5825</v>
+        <v>-131527.6497</v>
       </c>
       <c r="I170" t="n">
-        <v>-2396.0134</v>
+        <v>58288.4108</v>
       </c>
       <c r="J170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -7265,16 +7265,16 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>-98179.16009999999</v>
+        <v>-127763.6248</v>
       </c>
       <c r="G171" t="n">
         <v>0.001</v>
       </c>
       <c r="H171" t="n">
-        <v>-148008.1321</v>
+        <v>-219183.1255</v>
       </c>
       <c r="I171" t="n">
-        <v>-48350.1882</v>
+        <v>-36344.1241</v>
       </c>
       <c r="J171" t="b">
         <v>1</v>
@@ -7305,16 +7305,16 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>-12822.8562</v>
+        <v>-45031.8489</v>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>0.7644</v>
       </c>
       <c r="H172" t="n">
-        <v>-54771.5194</v>
+        <v>-115478.9303</v>
       </c>
       <c r="I172" t="n">
-        <v>29125.8071</v>
+        <v>25415.2326</v>
       </c>
       <c r="J172" t="b">
         <v>0</v>
@@ -7345,16 +7345,16 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>-88919.05560000001</v>
+        <v>-142008.1831</v>
       </c>
       <c r="G173" t="n">
         <v>0.001</v>
       </c>
       <c r="H173" t="n">
-        <v>-144630.8153</v>
+        <v>-243082.6569</v>
       </c>
       <c r="I173" t="n">
-        <v>-33207.2959</v>
+        <v>-40933.7094</v>
       </c>
       <c r="J173" t="b">
         <v>1</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>55835.401</v>
+        <v>-33183.9177</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0071</v>
+        <v>0.9</v>
       </c>
       <c r="H174" t="n">
-        <v>7044.3764</v>
+        <v>-116317.0326</v>
       </c>
       <c r="I174" t="n">
-        <v>104626.4255</v>
+        <v>49949.1971</v>
       </c>
       <c r="J174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -7425,16 +7425,16 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>-156887.2663</v>
+        <v>-287043.676</v>
       </c>
       <c r="G175" t="n">
         <v>0.001</v>
       </c>
       <c r="H175" t="n">
-        <v>-203740.4845</v>
+        <v>-369836.0307</v>
       </c>
       <c r="I175" t="n">
-        <v>-110034.048</v>
+        <v>-204251.3214</v>
       </c>
       <c r="J175" t="b">
         <v>1</v>
@@ -7465,16 +7465,16 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>-177468.5154</v>
+        <v>-304314.5129</v>
       </c>
       <c r="G176" t="n">
         <v>0.001</v>
       </c>
       <c r="H176" t="n">
-        <v>-227441.2177</v>
+        <v>-396457.8582</v>
       </c>
       <c r="I176" t="n">
-        <v>-127495.8131</v>
+        <v>-212171.1675</v>
       </c>
       <c r="J176" t="b">
         <v>1</v>
@@ -7505,16 +7505,16 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>-181763.8342</v>
+        <v>-317016.7301</v>
       </c>
       <c r="G177" t="n">
         <v>0.001</v>
       </c>
       <c r="H177" t="n">
-        <v>-233346.1187</v>
+        <v>-411415.6797</v>
       </c>
       <c r="I177" t="n">
-        <v>-130181.5496</v>
+        <v>-222617.7804</v>
       </c>
       <c r="J177" t="b">
         <v>1</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>-173544.7761</v>
+        <v>-302679.5615</v>
       </c>
       <c r="G178" t="n">
         <v>0.001</v>
       </c>
       <c r="H178" t="n">
-        <v>-230830.078</v>
+        <v>-407467.4405</v>
       </c>
       <c r="I178" t="n">
-        <v>-116259.4743</v>
+        <v>-197891.6824</v>
       </c>
       <c r="J178" t="b">
         <v>1</v>
@@ -7585,16 +7585,16 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>-192117.7248</v>
+        <v>-333555.8451</v>
       </c>
       <c r="G179" t="n">
         <v>0.001</v>
       </c>
       <c r="H179" t="n">
-        <v>-247829.4845</v>
+        <v>-438934.536</v>
       </c>
       <c r="I179" t="n">
-        <v>-136405.9651</v>
+        <v>-228177.1541</v>
       </c>
       <c r="J179" t="b">
         <v>1</v>
@@ -7625,16 +7625,16 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>-155981.47</v>
+        <v>-290123.3159</v>
       </c>
       <c r="G180" t="n">
         <v>0.001</v>
       </c>
       <c r="H180" t="n">
-        <v>-204772.4946</v>
+        <v>-375542.3267</v>
       </c>
       <c r="I180" t="n">
-        <v>-107190.4454</v>
+        <v>-204704.3051</v>
       </c>
       <c r="J180" t="b">
         <v>1</v>
@@ -7665,16 +7665,16 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>-52802.2519</v>
+        <v>-143447.9551</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0092</v>
+        <v>0.001</v>
       </c>
       <c r="H181" t="n">
-        <v>-99655.47010000001</v>
+        <v>-225123.5158</v>
       </c>
       <c r="I181" t="n">
-        <v>-5949.0336</v>
+        <v>-61772.3944</v>
       </c>
       <c r="J181" t="b">
         <v>1</v>
@@ -7705,16 +7705,16 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>-88901.4592</v>
+        <v>-139178.4099</v>
       </c>
       <c r="G182" t="n">
         <v>0.001</v>
       </c>
       <c r="H182" t="n">
-        <v>-138874.1615</v>
+        <v>-229601.3365</v>
       </c>
       <c r="I182" t="n">
-        <v>-38928.7569</v>
+        <v>-48755.4833</v>
       </c>
       <c r="J182" t="b">
         <v>1</v>
@@ -7745,16 +7745,16 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>-120915.5903</v>
+        <v>-182697.8574</v>
       </c>
       <c r="G183" t="n">
         <v>0.001</v>
       </c>
       <c r="H183" t="n">
-        <v>-172497.8749</v>
+        <v>-278165.8296</v>
       </c>
       <c r="I183" t="n">
-        <v>-69333.3058</v>
+        <v>-87229.8852</v>
       </c>
       <c r="J183" t="b">
         <v>1</v>
@@ -7785,16 +7785,16 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>-87180.1706</v>
+        <v>-121060.349</v>
       </c>
       <c r="G184" t="n">
-        <v>0.001</v>
+        <v>0.0073</v>
       </c>
       <c r="H184" t="n">
-        <v>-144465.4724</v>
+        <v>-227052.3365</v>
       </c>
       <c r="I184" t="n">
-        <v>-29894.8687</v>
+        <v>-15068.3616</v>
       </c>
       <c r="J184" t="b">
         <v>1</v>
@@ -7825,16 +7825,16 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>-131381.0328</v>
+        <v>-212204.3544</v>
       </c>
       <c r="G185" t="n">
         <v>0.001</v>
       </c>
       <c r="H185" t="n">
-        <v>-187092.7925</v>
+        <v>-315084.3442</v>
       </c>
       <c r="I185" t="n">
-        <v>-75669.27310000001</v>
+        <v>-109324.3646</v>
       </c>
       <c r="J185" t="b">
         <v>1</v>
@@ -7865,19 +7865,19 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>-46024.7288</v>
+        <v>-129472.5785</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09569999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="H186" t="n">
-        <v>-94815.7534</v>
+        <v>-214263.8427</v>
       </c>
       <c r="I186" t="n">
-        <v>2766.2958</v>
+        <v>-44681.3142</v>
       </c>
       <c r="J186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -7905,16 +7905,16 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>144754.4566</v>
+        <v>108824.2654</v>
       </c>
       <c r="G187" t="n">
         <v>0.001</v>
       </c>
       <c r="H187" t="n">
-        <v>97820.9031</v>
+        <v>26961.8378</v>
       </c>
       <c r="I187" t="n">
-        <v>191688.01</v>
+        <v>190686.693</v>
       </c>
       <c r="J187" t="b">
         <v>1</v>
@@ -7945,16 +7945,16 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>-67968.2107</v>
+        <v>-145035.4929</v>
       </c>
       <c r="G188" t="n">
         <v>0.001</v>
       </c>
       <c r="H188" t="n">
-        <v>-112883.8919</v>
+        <v>-226551.8487</v>
       </c>
       <c r="I188" t="n">
-        <v>-23052.5294</v>
+        <v>-63519.1371</v>
       </c>
       <c r="J188" t="b">
         <v>1</v>
@@ -7985,16 +7985,16 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>-88549.4598</v>
+        <v>-162306.3298</v>
       </c>
       <c r="G189" t="n">
         <v>0.001</v>
       </c>
       <c r="H189" t="n">
-        <v>-136710.2876</v>
+        <v>-253304.8922</v>
       </c>
       <c r="I189" t="n">
-        <v>-40388.632</v>
+        <v>-71307.76730000001</v>
       </c>
       <c r="J189" t="b">
         <v>1</v>
@@ -8025,16 +8025,16 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>-92844.77860000001</v>
+        <v>-175008.5469</v>
       </c>
       <c r="G190" t="n">
         <v>0.001</v>
       </c>
       <c r="H190" t="n">
-        <v>-142673.7505</v>
+        <v>-268290.3993</v>
       </c>
       <c r="I190" t="n">
-        <v>-43015.8067</v>
+        <v>-81726.6946</v>
       </c>
       <c r="J190" t="b">
         <v>1</v>
@@ -8065,16 +8065,16 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>-84625.7205</v>
+        <v>-160671.3784</v>
       </c>
       <c r="G191" t="n">
         <v>0.001</v>
       </c>
       <c r="H191" t="n">
-        <v>-140337.4802</v>
+        <v>-264454.0449</v>
       </c>
       <c r="I191" t="n">
-        <v>-28913.9608</v>
+        <v>-56888.7119</v>
       </c>
       <c r="J191" t="b">
         <v>1</v>
@@ -8105,16 +8105,16 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>-103198.6692</v>
+        <v>-191547.6619</v>
       </c>
       <c r="G192" t="n">
         <v>0.001</v>
       </c>
       <c r="H192" t="n">
-        <v>-157291.132</v>
+        <v>-295926.8303</v>
       </c>
       <c r="I192" t="n">
-        <v>-49106.2064</v>
+        <v>-87168.4936</v>
       </c>
       <c r="J192" t="b">
         <v>1</v>
@@ -8145,16 +8145,16 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>-67062.41439999999</v>
+        <v>-148115.1328</v>
       </c>
       <c r="G193" t="n">
         <v>0.001</v>
       </c>
       <c r="H193" t="n">
-        <v>-113995.9679</v>
+        <v>-232297.9676</v>
       </c>
       <c r="I193" t="n">
-        <v>-20128.8609</v>
+        <v>-63932.2979</v>
       </c>
       <c r="J193" t="b">
         <v>1</v>
@@ -8185,16 +8185,16 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>36116.8037</v>
+        <v>-1439.772</v>
       </c>
       <c r="G194" t="n">
-        <v>0.3459</v>
+        <v>0.9</v>
       </c>
       <c r="H194" t="n">
-        <v>-8798.877500000001</v>
+        <v>-81821.6075</v>
       </c>
       <c r="I194" t="n">
-        <v>81032.485</v>
+        <v>78942.06359999999</v>
       </c>
       <c r="J194" t="b">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>17.5964</v>
+        <v>2829.7732</v>
       </c>
       <c r="G195" t="n">
         <v>0.9</v>
       </c>
       <c r="H195" t="n">
-        <v>-48143.2314</v>
+        <v>-86426.30740000001</v>
       </c>
       <c r="I195" t="n">
-        <v>48178.4242</v>
+        <v>92085.8539</v>
       </c>
       <c r="J195" t="b">
         <v>0</v>
@@ -8265,16 +8265,16 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>-31996.5347</v>
+        <v>-40689.6743</v>
       </c>
       <c r="G196" t="n">
-        <v>0.7574</v>
+        <v>0.9</v>
       </c>
       <c r="H196" t="n">
-        <v>-81825.50659999999</v>
+        <v>-135053.2053</v>
       </c>
       <c r="I196" t="n">
-        <v>17832.4372</v>
+        <v>53673.8568</v>
       </c>
       <c r="J196" t="b">
         <v>0</v>
@@ -8305,16 +8305,16 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1738.885</v>
+        <v>20947.8341</v>
       </c>
       <c r="G197" t="n">
         <v>0.9</v>
       </c>
       <c r="H197" t="n">
-        <v>-53972.8747</v>
+        <v>-84050.4691</v>
       </c>
       <c r="I197" t="n">
-        <v>57450.6447</v>
+        <v>125946.1373</v>
       </c>
       <c r="J197" t="b">
         <v>0</v>
@@ -8345,16 +8345,16 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>-42461.9772</v>
+        <v>-70196.1713</v>
       </c>
       <c r="G198" t="n">
-        <v>0.3997</v>
+        <v>0.6429</v>
       </c>
       <c r="H198" t="n">
-        <v>-96554.44</v>
+        <v>-172052.1214</v>
       </c>
       <c r="I198" t="n">
-        <v>11630.4856</v>
+        <v>31659.7789</v>
       </c>
       <c r="J198" t="b">
         <v>0</v>
@@ -8385,16 +8385,16 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>42894.3268</v>
+        <v>12535.6047</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1299</v>
+        <v>0.9</v>
       </c>
       <c r="H199" t="n">
-        <v>-4039.2267</v>
+        <v>-71010.1957</v>
       </c>
       <c r="I199" t="n">
-        <v>89827.8803</v>
+        <v>96081.405</v>
       </c>
       <c r="J199" t="b">
         <v>0</v>
@@ -8425,16 +8425,16 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>-212722.6672</v>
+        <v>-253859.7583</v>
       </c>
       <c r="G200" t="n">
         <v>0.001</v>
       </c>
       <c r="H200" t="n">
-        <v>-248697.413</v>
+        <v>-311652.334</v>
       </c>
       <c r="I200" t="n">
-        <v>-176747.9215</v>
+        <v>-196067.1826</v>
       </c>
       <c r="J200" t="b">
         <v>1</v>
@@ -8465,16 +8465,16 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>-233303.9164</v>
+        <v>-271130.5951</v>
       </c>
       <c r="G201" t="n">
         <v>0.001</v>
       </c>
       <c r="H201" t="n">
-        <v>-273256.7541</v>
+        <v>-341669.9736</v>
       </c>
       <c r="I201" t="n">
-        <v>-193351.0786</v>
+        <v>-200591.2167</v>
       </c>
       <c r="J201" t="b">
         <v>1</v>
@@ -8505,16 +8505,16 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>-237599.2352</v>
+        <v>-283832.8123</v>
       </c>
       <c r="G202" t="n">
         <v>0.001</v>
       </c>
       <c r="H202" t="n">
-        <v>-279547.8984</v>
+        <v>-357294.1594</v>
       </c>
       <c r="I202" t="n">
-        <v>-195650.5719</v>
+        <v>-210371.4653</v>
       </c>
       <c r="J202" t="b">
         <v>1</v>
@@ -8545,16 +8545,16 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>-229380.1771</v>
+        <v>-269495.6438</v>
       </c>
       <c r="G203" t="n">
         <v>0.001</v>
       </c>
       <c r="H203" t="n">
-        <v>-278171.2017</v>
+        <v>-355901.1263</v>
       </c>
       <c r="I203" t="n">
-        <v>-180589.1525</v>
+        <v>-183090.1613</v>
       </c>
       <c r="J203" t="b">
         <v>1</v>
@@ -8585,16 +8585,16 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>-247953.1258</v>
+        <v>-300371.9273</v>
       </c>
       <c r="G204" t="n">
         <v>0.001</v>
       </c>
       <c r="H204" t="n">
-        <v>-294886.6792</v>
+        <v>-387492.9714</v>
       </c>
       <c r="I204" t="n">
-        <v>-201019.5723</v>
+        <v>-213250.8833</v>
       </c>
       <c r="J204" t="b">
         <v>1</v>
@@ -8625,16 +8625,16 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>-211816.8709</v>
+        <v>-256939.3982</v>
       </c>
       <c r="G205" t="n">
         <v>0.001</v>
       </c>
       <c r="H205" t="n">
-        <v>-250281.4306</v>
+        <v>-318435.8633</v>
       </c>
       <c r="I205" t="n">
-        <v>-173352.3113</v>
+        <v>-195442.9331</v>
       </c>
       <c r="J205" t="b">
         <v>1</v>
@@ -8665,16 +8665,16 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>-108637.6528</v>
+        <v>-110264.0374</v>
       </c>
       <c r="G206" t="n">
         <v>0.001</v>
       </c>
       <c r="H206" t="n">
-        <v>-144612.3985</v>
+        <v>-166445.0397</v>
       </c>
       <c r="I206" t="n">
-        <v>-72662.9071</v>
+        <v>-54083.035</v>
       </c>
       <c r="J206" t="b">
         <v>1</v>
@@ -8705,16 +8705,16 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>-144736.8602</v>
+        <v>-105994.4922</v>
       </c>
       <c r="G207" t="n">
         <v>0.001</v>
       </c>
       <c r="H207" t="n">
-        <v>-184689.6979</v>
+        <v>-174271.2339</v>
       </c>
       <c r="I207" t="n">
-        <v>-104784.0224</v>
+        <v>-37717.7504</v>
       </c>
       <c r="J207" t="b">
         <v>1</v>
@@ -8745,16 +8745,16 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>-176750.9913</v>
+        <v>-149513.9397</v>
       </c>
       <c r="G208" t="n">
         <v>0.001</v>
       </c>
       <c r="H208" t="n">
-        <v>-218699.6546</v>
+        <v>-224344.024</v>
       </c>
       <c r="I208" t="n">
-        <v>-134802.328</v>
+        <v>-74683.8553</v>
       </c>
       <c r="J208" t="b">
         <v>1</v>
@@ -8785,16 +8785,16 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>-143015.5715</v>
+        <v>-87876.4313</v>
       </c>
       <c r="G209" t="n">
-        <v>0.001</v>
+        <v>0.0499</v>
       </c>
       <c r="H209" t="n">
-        <v>-191806.5961</v>
+        <v>-175738.3071</v>
       </c>
       <c r="I209" t="n">
-        <v>-94224.54700000001</v>
+        <v>-14.5555</v>
       </c>
       <c r="J209" t="b">
         <v>1</v>
@@ -8825,16 +8825,16 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>-187216.4337</v>
+        <v>-179020.4367</v>
       </c>
       <c r="G210" t="n">
         <v>0.001</v>
       </c>
       <c r="H210" t="n">
-        <v>-234149.9872</v>
+        <v>-263101.9454</v>
       </c>
       <c r="I210" t="n">
-        <v>-140282.8803</v>
+        <v>-94938.9279</v>
       </c>
       <c r="J210" t="b">
         <v>1</v>
@@ -8865,16 +8865,16 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>-101860.1298</v>
+        <v>-96288.66069999999</v>
       </c>
       <c r="G211" t="n">
         <v>0.001</v>
       </c>
       <c r="H211" t="n">
-        <v>-140324.6894</v>
+        <v>-156910.1611</v>
       </c>
       <c r="I211" t="n">
-        <v>-63395.5701</v>
+        <v>-35667.1604</v>
       </c>
       <c r="J211" t="b">
         <v>1</v>
@@ -8905,16 +8905,16 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>-20581.2491</v>
+        <v>-17270.8369</v>
       </c>
       <c r="G212" t="n">
         <v>0.9</v>
       </c>
       <c r="H212" t="n">
-        <v>-58143.0545</v>
+        <v>-87408.2956</v>
       </c>
       <c r="I212" t="n">
-        <v>16980.5563</v>
+        <v>52866.6219</v>
       </c>
       <c r="J212" t="b">
         <v>0</v>
@@ -8945,16 +8945,16 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>-24876.5679</v>
+        <v>-29973.054</v>
       </c>
       <c r="G213" t="n">
-        <v>0.7942</v>
+        <v>0.9</v>
       </c>
       <c r="H213" t="n">
-        <v>-64554.6517</v>
+        <v>-103048.5542</v>
       </c>
       <c r="I213" t="n">
-        <v>14801.5158</v>
+        <v>43102.4461</v>
       </c>
       <c r="J213" t="b">
         <v>0</v>
@@ -8985,16 +8985,16 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>-16657.5098</v>
+        <v>-15635.8855</v>
       </c>
       <c r="G214" t="n">
         <v>0.9</v>
       </c>
       <c r="H214" t="n">
-        <v>-63510.7281</v>
+        <v>-101713.5633</v>
       </c>
       <c r="I214" t="n">
-        <v>30195.7084</v>
+        <v>70441.7923</v>
       </c>
       <c r="J214" t="b">
         <v>0</v>
@@ -9025,16 +9025,16 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>-35230.4585</v>
+        <v>-46512.169</v>
       </c>
       <c r="G215" t="n">
-        <v>0.4015</v>
+        <v>0.9</v>
       </c>
       <c r="H215" t="n">
-        <v>-80146.1398</v>
+        <v>-133308.1109</v>
       </c>
       <c r="I215" t="n">
-        <v>9685.2227</v>
+        <v>40283.7729</v>
       </c>
       <c r="J215" t="b">
         <v>0</v>
@@ -9065,16 +9065,16 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>905.7963</v>
+        <v>-3079.6399</v>
       </c>
       <c r="G216" t="n">
         <v>0.9</v>
       </c>
       <c r="H216" t="n">
-        <v>-35068.9494</v>
+        <v>-64114.6661</v>
       </c>
       <c r="I216" t="n">
-        <v>36880.542</v>
+        <v>57955.3864</v>
       </c>
       <c r="J216" t="b">
         <v>0</v>
@@ -9105,16 +9105,16 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>104085.0144</v>
+        <v>143595.7209</v>
       </c>
       <c r="G217" t="n">
         <v>0.001</v>
       </c>
       <c r="H217" t="n">
-        <v>70785.73050000001</v>
+        <v>87920.1946</v>
       </c>
       <c r="I217" t="n">
-        <v>137384.2983</v>
+        <v>199271.2473</v>
       </c>
       <c r="J217" t="b">
         <v>1</v>
@@ -9145,16 +9145,16 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>67985.80710000001</v>
+        <v>147865.2661</v>
       </c>
       <c r="G218" t="n">
         <v>0.001</v>
       </c>
       <c r="H218" t="n">
-        <v>30424.0017</v>
+        <v>80003.84359999999</v>
       </c>
       <c r="I218" t="n">
-        <v>105547.6125</v>
+        <v>215726.6887</v>
       </c>
       <c r="J218" t="b">
         <v>1</v>
@@ -9185,19 +9185,19 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>35971.6759</v>
+        <v>104345.8186</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1403</v>
+        <v>0.001</v>
       </c>
       <c r="H219" t="n">
-        <v>-3706.4078</v>
+        <v>29894.4874</v>
       </c>
       <c r="I219" t="n">
-        <v>75649.7597</v>
+        <v>178797.1499</v>
       </c>
       <c r="J219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -9225,16 +9225,16 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>69707.09570000001</v>
+        <v>165983.327</v>
       </c>
       <c r="G220" t="n">
         <v>0.001</v>
       </c>
       <c r="H220" t="n">
-        <v>22853.8775</v>
+        <v>78443.8021</v>
       </c>
       <c r="I220" t="n">
-        <v>116560.3139</v>
+        <v>253522.8519</v>
       </c>
       <c r="J220" t="b">
         <v>1</v>
@@ -9265,16 +9265,16 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>25506.2335</v>
+        <v>74839.3216</v>
       </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>0.1602</v>
       </c>
       <c r="H221" t="n">
-        <v>-19409.4477</v>
+        <v>-8905.286099999999</v>
       </c>
       <c r="I221" t="n">
-        <v>70421.91469999999</v>
+        <v>158583.9294</v>
       </c>
       <c r="J221" t="b">
         <v>0</v>
@@ -9305,16 +9305,16 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>110862.5375</v>
+        <v>157571.0976</v>
       </c>
       <c r="G222" t="n">
         <v>0.001</v>
       </c>
       <c r="H222" t="n">
-        <v>74887.7917</v>
+        <v>97417.7476</v>
       </c>
       <c r="I222" t="n">
-        <v>146837.2832</v>
+        <v>217724.4475</v>
       </c>
       <c r="J222" t="b">
         <v>1</v>
@@ -9345,16 +9345,16 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>-4295.3188</v>
+        <v>-12702.2172</v>
       </c>
       <c r="G223" t="n">
         <v>0.9</v>
       </c>
       <c r="H223" t="n">
-        <v>-47612.72</v>
+        <v>-96223.77619999999</v>
       </c>
       <c r="I223" t="n">
-        <v>39022.0824</v>
+        <v>70819.3419</v>
       </c>
       <c r="J223" t="b">
         <v>0</v>
@@ -9385,16 +9385,16 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>3923.7393</v>
+        <v>1634.9514</v>
       </c>
       <c r="G224" t="n">
         <v>0.9</v>
       </c>
       <c r="H224" t="n">
-        <v>-46048.963</v>
+        <v>-93471.2457</v>
       </c>
       <c r="I224" t="n">
-        <v>53896.4416</v>
+        <v>96741.1485</v>
       </c>
       <c r="J224" t="b">
         <v>0</v>
@@ -9425,16 +9425,16 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>-14649.2094</v>
+        <v>-29241.3322</v>
       </c>
       <c r="G225" t="n">
         <v>0.9</v>
       </c>
       <c r="H225" t="n">
-        <v>-62810.0372</v>
+        <v>-124998.0951</v>
       </c>
       <c r="I225" t="n">
-        <v>33511.6184</v>
+        <v>66515.4307</v>
       </c>
       <c r="J225" t="b">
         <v>0</v>
@@ -9465,16 +9465,16 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>21487.0454</v>
+        <v>14191.197</v>
       </c>
       <c r="G226" t="n">
         <v>0.9</v>
       </c>
       <c r="H226" t="n">
-        <v>-18465.7924</v>
+        <v>-59028.3123</v>
       </c>
       <c r="I226" t="n">
-        <v>61439.8832</v>
+        <v>87410.7062</v>
       </c>
       <c r="J226" t="b">
         <v>0</v>
@@ -9505,16 +9505,16 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>124666.2635</v>
+        <v>160866.5578</v>
       </c>
       <c r="G227" t="n">
         <v>0.001</v>
       </c>
       <c r="H227" t="n">
-        <v>87104.4581</v>
+        <v>92050.9611</v>
       </c>
       <c r="I227" t="n">
-        <v>162228.0689</v>
+        <v>229682.1544</v>
       </c>
       <c r="J227" t="b">
         <v>1</v>
@@ -9545,16 +9545,16 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>88567.05620000001</v>
+        <v>165136.103</v>
       </c>
       <c r="G228" t="n">
         <v>0.001</v>
       </c>
       <c r="H228" t="n">
-        <v>47179.4235</v>
+        <v>86136.136</v>
       </c>
       <c r="I228" t="n">
-        <v>129954.6889</v>
+        <v>244136.07</v>
       </c>
       <c r="J228" t="b">
         <v>1</v>
@@ -9585,16 +9585,16 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>56552.9251</v>
+        <v>121616.6555</v>
       </c>
       <c r="G229" t="n">
         <v>0.001</v>
       </c>
       <c r="H229" t="n">
-        <v>13235.5239</v>
+        <v>36888.7213</v>
       </c>
       <c r="I229" t="n">
-        <v>99870.3263</v>
+        <v>206344.5897</v>
       </c>
       <c r="J229" t="b">
         <v>1</v>
@@ -9625,16 +9625,16 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>90288.34480000001</v>
+        <v>183254.1638</v>
       </c>
       <c r="G230" t="n">
         <v>0.001</v>
       </c>
       <c r="H230" t="n">
-        <v>40315.6425</v>
+        <v>86822.89019999999</v>
       </c>
       <c r="I230" t="n">
-        <v>140261.0471</v>
+        <v>279685.4375</v>
       </c>
       <c r="J230" t="b">
         <v>1</v>
@@ -9665,16 +9665,16 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>46087.4826</v>
+        <v>92110.15850000001</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0833</v>
+        <v>0.0563</v>
       </c>
       <c r="H231" t="n">
-        <v>-2073.3452</v>
+        <v>-889.7417</v>
       </c>
       <c r="I231" t="n">
-        <v>94248.31050000001</v>
+        <v>185110.0587</v>
       </c>
       <c r="J231" t="b">
         <v>0</v>
@@ -9705,16 +9705,16 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>131443.7866</v>
+        <v>174841.9344</v>
       </c>
       <c r="G232" t="n">
         <v>0.001</v>
       </c>
       <c r="H232" t="n">
-        <v>91490.9488</v>
+        <v>102355.7453</v>
       </c>
       <c r="I232" t="n">
-        <v>171396.6244</v>
+        <v>247328.1235</v>
       </c>
       <c r="J232" t="b">
         <v>1</v>
@@ -9745,16 +9745,16 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>8219.0581</v>
+        <v>14337.1686</v>
       </c>
       <c r="G233" t="n">
         <v>0.9</v>
       </c>
       <c r="H233" t="n">
-        <v>-43363.2265</v>
+        <v>-82955.9675</v>
       </c>
       <c r="I233" t="n">
-        <v>59801.3426</v>
+        <v>111630.3046</v>
       </c>
       <c r="J233" t="b">
         <v>0</v>
@@ -9785,16 +9785,16 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>-10353.8906</v>
+        <v>-16539.115</v>
       </c>
       <c r="G234" t="n">
         <v>0.9</v>
       </c>
       <c r="H234" t="n">
-        <v>-60182.8625</v>
+        <v>-114468.2896</v>
       </c>
       <c r="I234" t="n">
-        <v>39475.0813</v>
+        <v>81390.05959999999</v>
       </c>
       <c r="J234" t="b">
         <v>0</v>
@@ -9825,16 +9825,16 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>25782.3642</v>
+        <v>26893.4142</v>
       </c>
       <c r="G235" t="n">
-        <v>0.8243</v>
+        <v>0.9</v>
       </c>
       <c r="H235" t="n">
-        <v>-16166.299</v>
+        <v>-49145.1428</v>
       </c>
       <c r="I235" t="n">
-        <v>67731.0275</v>
+        <v>102931.9711</v>
       </c>
       <c r="J235" t="b">
         <v>0</v>
@@ -9865,16 +9865,16 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>128961.5823</v>
+        <v>173568.775</v>
       </c>
       <c r="G236" t="n">
         <v>0.001</v>
       </c>
       <c r="H236" t="n">
-        <v>89283.49860000001</v>
+        <v>101761.032</v>
       </c>
       <c r="I236" t="n">
-        <v>168639.6661</v>
+        <v>245376.5179</v>
       </c>
       <c r="J236" t="b">
         <v>1</v>
@@ -9905,16 +9905,16 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>92862.375</v>
+        <v>177838.3202</v>
       </c>
       <c r="G237" t="n">
         <v>0.001</v>
       </c>
       <c r="H237" t="n">
-        <v>49544.9738</v>
+        <v>96218.7123</v>
       </c>
       <c r="I237" t="n">
-        <v>136179.7762</v>
+        <v>259457.928</v>
       </c>
       <c r="J237" t="b">
         <v>1</v>
@@ -9945,16 +9945,16 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>60848.2439</v>
+        <v>134318.8727</v>
       </c>
       <c r="G238" t="n">
         <v>0.001</v>
       </c>
       <c r="H238" t="n">
-        <v>15683.4528</v>
+        <v>47143.2543</v>
       </c>
       <c r="I238" t="n">
-        <v>106013.0349</v>
+        <v>221494.4911</v>
       </c>
       <c r="J238" t="b">
         <v>1</v>
@@ -9985,16 +9985,16 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>94583.6636</v>
+        <v>195956.381</v>
       </c>
       <c r="G239" t="n">
         <v>0.001</v>
       </c>
       <c r="H239" t="n">
-        <v>43001.3791</v>
+        <v>97367.55740000001</v>
       </c>
       <c r="I239" t="n">
-        <v>146165.9482</v>
+        <v>294545.2046</v>
       </c>
       <c r="J239" t="b">
         <v>1</v>
@@ -10025,16 +10025,16 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>50382.8014</v>
+        <v>104812.3757</v>
       </c>
       <c r="G240" t="n">
-        <v>0.0438</v>
+        <v>0.0134</v>
       </c>
       <c r="H240" t="n">
-        <v>553.8295000000001</v>
+        <v>9577.1561</v>
       </c>
       <c r="I240" t="n">
-        <v>100211.7733</v>
+        <v>200047.5952</v>
       </c>
       <c r="J240" t="b">
         <v>1</v>
@@ -10065,16 +10065,16 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>135739.1054</v>
+        <v>187544.1516</v>
       </c>
       <c r="G241" t="n">
         <v>0.001</v>
       </c>
       <c r="H241" t="n">
-        <v>93790.4421</v>
+        <v>112211.468</v>
       </c>
       <c r="I241" t="n">
-        <v>177687.7686</v>
+        <v>262876.8352</v>
       </c>
       <c r="J241" t="b">
         <v>1</v>
@@ -10105,16 +10105,16 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>-18572.9487</v>
+        <v>-30876.2836</v>
       </c>
       <c r="G242" t="n">
         <v>0.9</v>
       </c>
       <c r="H242" t="n">
-        <v>-74284.7084</v>
+        <v>-138855.2683</v>
       </c>
       <c r="I242" t="n">
-        <v>37138.811</v>
+        <v>77102.70110000001</v>
       </c>
       <c r="J242" t="b">
         <v>0</v>
@@ -10145,16 +10145,16 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>17563.3061</v>
+        <v>12556.2456</v>
       </c>
       <c r="G243" t="n">
         <v>0.9</v>
       </c>
       <c r="H243" t="n">
-        <v>-31227.7184</v>
+        <v>-76050.7521</v>
       </c>
       <c r="I243" t="n">
-        <v>66354.33070000001</v>
+        <v>101163.2433</v>
       </c>
       <c r="J243" t="b">
         <v>0</v>
@@ -10185,16 +10185,16 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>120742.5243</v>
+        <v>159231.6064</v>
       </c>
       <c r="G244" t="n">
         <v>0.001</v>
       </c>
       <c r="H244" t="n">
-        <v>73889.306</v>
+        <v>74227.54859999999</v>
       </c>
       <c r="I244" t="n">
-        <v>167595.7425</v>
+        <v>244235.6642</v>
       </c>
       <c r="J244" t="b">
         <v>1</v>
@@ -10225,16 +10225,16 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>84643.31690000001</v>
+        <v>163501.1516</v>
       </c>
       <c r="G245" t="n">
         <v>0.001</v>
       </c>
       <c r="H245" t="n">
-        <v>34670.6146</v>
+        <v>70060.8055</v>
       </c>
       <c r="I245" t="n">
-        <v>134616.0192</v>
+        <v>256941.4977</v>
       </c>
       <c r="J245" t="b">
         <v>1</v>
@@ -10265,16 +10265,16 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>52629.1858</v>
+        <v>119981.7041</v>
       </c>
       <c r="G246" t="n">
-        <v>0.0391</v>
+        <v>0.0022</v>
       </c>
       <c r="H246" t="n">
-        <v>1046.9012</v>
+        <v>21651.0053</v>
       </c>
       <c r="I246" t="n">
-        <v>104211.4703</v>
+        <v>218312.403</v>
       </c>
       <c r="J246" t="b">
         <v>1</v>
@@ -10305,16 +10305,16 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>86364.60550000001</v>
+        <v>181619.2125</v>
       </c>
       <c r="G247" t="n">
         <v>0.001</v>
       </c>
       <c r="H247" t="n">
-        <v>29079.3037</v>
+        <v>73041.6179</v>
       </c>
       <c r="I247" t="n">
-        <v>143649.9074</v>
+        <v>290196.807</v>
       </c>
       <c r="J247" t="b">
         <v>1</v>
@@ -10345,16 +10345,16 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>42163.7433</v>
+        <v>90475.2071</v>
       </c>
       <c r="G248" t="n">
-        <v>0.4776</v>
+        <v>0.2243</v>
       </c>
       <c r="H248" t="n">
-        <v>-13548.0164</v>
+        <v>-15066.6563</v>
       </c>
       <c r="I248" t="n">
-        <v>97875.5031</v>
+        <v>196017.0705</v>
       </c>
       <c r="J248" t="b">
         <v>0</v>
@@ -10385,16 +10385,16 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>127520.0473</v>
+        <v>173206.983</v>
       </c>
       <c r="G249" t="n">
         <v>0.001</v>
       </c>
       <c r="H249" t="n">
-        <v>78729.0227</v>
+        <v>85204.9881</v>
       </c>
       <c r="I249" t="n">
-        <v>176311.0719</v>
+        <v>261208.978</v>
       </c>
       <c r="J249" t="b">
         <v>1</v>
@@ -10425,16 +10425,16 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>36136.2548</v>
+        <v>43432.5292</v>
       </c>
       <c r="G250" t="n">
-        <v>0.4423</v>
+        <v>0.9</v>
       </c>
       <c r="H250" t="n">
-        <v>-10797.2987</v>
+        <v>-45872.392</v>
       </c>
       <c r="I250" t="n">
-        <v>83069.8083</v>
+        <v>132737.4504</v>
       </c>
       <c r="J250" t="b">
         <v>0</v>
@@ -10465,16 +10465,16 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>139315.4729</v>
+        <v>190107.89</v>
       </c>
       <c r="G251" t="n">
         <v>0.001</v>
       </c>
       <c r="H251" t="n">
-        <v>94399.7917</v>
+        <v>104376.5727</v>
       </c>
       <c r="I251" t="n">
-        <v>184231.1542</v>
+        <v>275839.2072</v>
       </c>
       <c r="J251" t="b">
         <v>1</v>
@@ -10505,16 +10505,16 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>103216.2656</v>
+        <v>194377.4352</v>
       </c>
       <c r="G252" t="n">
         <v>0.001</v>
       </c>
       <c r="H252" t="n">
-        <v>55055.4378</v>
+        <v>100275.0059</v>
       </c>
       <c r="I252" t="n">
-        <v>151377.0934</v>
+        <v>288479.8645</v>
       </c>
       <c r="J252" t="b">
         <v>1</v>
@@ -10545,16 +10545,16 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>71202.1345</v>
+        <v>150857.9877</v>
       </c>
       <c r="G253" t="n">
         <v>0.001</v>
       </c>
       <c r="H253" t="n">
-        <v>21373.1626</v>
+        <v>51897.9187</v>
       </c>
       <c r="I253" t="n">
-        <v>121031.1064</v>
+        <v>249818.0567</v>
       </c>
       <c r="J253" t="b">
         <v>1</v>
@@ -10585,16 +10585,16 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>104937.5542</v>
+        <v>212495.496</v>
       </c>
       <c r="G254" t="n">
         <v>0.001</v>
       </c>
       <c r="H254" t="n">
-        <v>49225.7945</v>
+        <v>103347.6012</v>
       </c>
       <c r="I254" t="n">
-        <v>160649.3139</v>
+        <v>321643.3909</v>
       </c>
       <c r="J254" t="b">
         <v>1</v>
@@ -10625,16 +10625,16 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>60736.692</v>
+        <v>121351.4907</v>
       </c>
       <c r="G255" t="n">
-        <v>0.0097</v>
+        <v>0.0072</v>
       </c>
       <c r="H255" t="n">
-        <v>6644.2292</v>
+        <v>15223.0126</v>
       </c>
       <c r="I255" t="n">
-        <v>114829.1548</v>
+        <v>227479.9687</v>
       </c>
       <c r="J255" t="b">
         <v>1</v>
@@ -10665,16 +10665,16 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>146092.996</v>
+        <v>204083.2666</v>
       </c>
       <c r="G256" t="n">
         <v>0.001</v>
       </c>
       <c r="H256" t="n">
-        <v>99159.4425</v>
+        <v>115378.5878</v>
       </c>
       <c r="I256" t="n">
-        <v>193026.5495</v>
+        <v>292787.9453</v>
       </c>
       <c r="J256" t="b">
         <v>1</v>
@@ -10705,16 +10705,16 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>103179.2181</v>
+        <v>146675.3608</v>
       </c>
       <c r="G257" t="n">
         <v>0.001</v>
       </c>
       <c r="H257" t="n">
-        <v>67204.4724</v>
+        <v>87164.0371</v>
       </c>
       <c r="I257" t="n">
-        <v>139153.9638</v>
+        <v>206186.6845</v>
       </c>
       <c r="J257" t="b">
         <v>1</v>
@@ -10745,16 +10745,16 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>67080.0108</v>
+        <v>150944.906</v>
       </c>
       <c r="G258" t="n">
         <v>0.001</v>
       </c>
       <c r="H258" t="n">
-        <v>27127.173</v>
+        <v>79902.6222</v>
       </c>
       <c r="I258" t="n">
-        <v>107032.8486</v>
+        <v>221987.1899</v>
       </c>
       <c r="J258" t="b">
         <v>1</v>
@@ -10785,19 +10785,19 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>35065.8797</v>
+        <v>107425.4585</v>
       </c>
       <c r="G259" t="n">
-        <v>0.269</v>
+        <v>0.001</v>
       </c>
       <c r="H259" t="n">
-        <v>-6882.7836</v>
+        <v>30063.7487</v>
       </c>
       <c r="I259" t="n">
-        <v>77014.5429</v>
+        <v>184787.1684</v>
       </c>
       <c r="J259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -10825,16 +10825,16 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>68801.2994</v>
+        <v>169062.9669</v>
       </c>
       <c r="G260" t="n">
         <v>0.001</v>
       </c>
       <c r="H260" t="n">
-        <v>20010.2748</v>
+        <v>79035.18309999999</v>
       </c>
       <c r="I260" t="n">
-        <v>117592.324</v>
+        <v>259090.7506</v>
       </c>
       <c r="J260" t="b">
         <v>1</v>
@@ -10865,16 +10865,16 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>24600.4372</v>
+        <v>77918.9615</v>
       </c>
       <c r="G261" t="n">
-        <v>0.9</v>
+        <v>0.1465</v>
       </c>
       <c r="H261" t="n">
-        <v>-22333.1163</v>
+        <v>-8423.338400000001</v>
       </c>
       <c r="I261" t="n">
-        <v>71533.99069999999</v>
+        <v>164261.2614</v>
       </c>
       <c r="J261" t="b">
         <v>0</v>
@@ -10905,16 +10905,16 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>109956.7412</v>
+        <v>160650.7374</v>
       </c>
       <c r="G262" t="n">
         <v>0.001</v>
       </c>
       <c r="H262" t="n">
-        <v>71492.18150000001</v>
+        <v>96930.5763</v>
       </c>
       <c r="I262" t="n">
-        <v>148421.3008</v>
+        <v>224370.8985</v>
       </c>
       <c r="J262" t="b">
         <v>1</v>
@@ -10945,16 +10945,16 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>-36099.2073</v>
+        <v>4269.5452</v>
       </c>
       <c r="G263" t="n">
-        <v>0.0796</v>
+        <v>0.9</v>
       </c>
       <c r="H263" t="n">
-        <v>-73661.01270000001</v>
+        <v>-62224.7846</v>
       </c>
       <c r="I263" t="n">
-        <v>1462.5981</v>
+        <v>70763.8751</v>
       </c>
       <c r="J263" t="b">
         <v>0</v>
@@ -10985,19 +10985,19 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>-68113.3385</v>
+        <v>-39249.9023</v>
       </c>
       <c r="G264" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H264" t="n">
-        <v>-107791.4222</v>
+        <v>-112457.306</v>
       </c>
       <c r="I264" t="n">
-        <v>-28435.2547</v>
+        <v>33957.5014</v>
       </c>
       <c r="J264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -11025,16 +11025,16 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>-34377.9187</v>
+        <v>22387.6061</v>
       </c>
       <c r="G265" t="n">
-        <v>0.5345</v>
+        <v>0.9</v>
       </c>
       <c r="H265" t="n">
-        <v>-81231.1369</v>
+        <v>-64096.4482</v>
       </c>
       <c r="I265" t="n">
-        <v>12475.2995</v>
+        <v>108871.6604</v>
       </c>
       <c r="J265" t="b">
         <v>0</v>
@@ -11065,19 +11065,19 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>-78578.7809</v>
+        <v>-68756.3993</v>
       </c>
       <c r="G266" t="n">
-        <v>0.001</v>
+        <v>0.2779</v>
       </c>
       <c r="H266" t="n">
-        <v>-123494.4622</v>
+        <v>-151397.0827</v>
       </c>
       <c r="I266" t="n">
-        <v>-33663.0997</v>
+        <v>13884.2841</v>
       </c>
       <c r="J266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -11105,16 +11105,16 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>6777.5231</v>
+        <v>13975.3766</v>
       </c>
       <c r="G267" t="n">
         <v>0.9</v>
       </c>
       <c r="H267" t="n">
-        <v>-29197.2227</v>
+        <v>-44631.3528</v>
       </c>
       <c r="I267" t="n">
-        <v>42752.2688</v>
+        <v>72582.1061</v>
       </c>
       <c r="J267" t="b">
         <v>0</v>
@@ -11145,16 +11145,16 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>-32014.1311</v>
+        <v>-43519.4475</v>
       </c>
       <c r="G268" t="n">
-        <v>0.5216</v>
+        <v>0.9</v>
       </c>
       <c r="H268" t="n">
-        <v>-75331.53230000001</v>
+        <v>-126373.1282</v>
       </c>
       <c r="I268" t="n">
-        <v>11303.2701</v>
+        <v>39334.2332</v>
       </c>
       <c r="J268" t="b">
         <v>0</v>
@@ -11185,16 +11185,16 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>1721.2886</v>
+        <v>18118.0608</v>
       </c>
       <c r="G269" t="n">
         <v>0.9</v>
       </c>
       <c r="H269" t="n">
-        <v>-48251.4137</v>
+        <v>-76670.652</v>
       </c>
       <c r="I269" t="n">
-        <v>51693.9909</v>
+        <v>112906.7737</v>
       </c>
       <c r="J269" t="b">
         <v>0</v>
@@ -11225,16 +11225,16 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>-42479.5736</v>
+        <v>-73025.9445</v>
       </c>
       <c r="G270" t="n">
-        <v>0.1784</v>
+        <v>0.3575</v>
       </c>
       <c r="H270" t="n">
-        <v>-90640.4014</v>
+        <v>-164321.5687</v>
       </c>
       <c r="I270" t="n">
-        <v>5681.2543</v>
+        <v>18269.6797</v>
       </c>
       <c r="J270" t="b">
         <v>0</v>
@@ -11265,19 +11265,19 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>42876.7304</v>
+        <v>9705.831399999999</v>
       </c>
       <c r="G271" t="n">
-        <v>0.0196</v>
+        <v>0.9</v>
       </c>
       <c r="H271" t="n">
-        <v>2923.8926</v>
+        <v>-60580.4203</v>
       </c>
       <c r="I271" t="n">
-        <v>82829.56819999999</v>
+        <v>79992.0831</v>
       </c>
       <c r="J271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -11305,16 +11305,16 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>33735.4197</v>
+        <v>61637.5083</v>
       </c>
       <c r="G272" t="n">
-        <v>0.7284</v>
+        <v>0.8141</v>
       </c>
       <c r="H272" t="n">
-        <v>-17846.8648</v>
+        <v>-37975.3831</v>
       </c>
       <c r="I272" t="n">
-        <v>85317.7043</v>
+        <v>161250.3998</v>
       </c>
       <c r="J272" t="b">
         <v>0</v>
@@ -11345,16 +11345,16 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>-10465.4425</v>
+        <v>-29506.497</v>
       </c>
       <c r="G273" t="n">
         <v>0.9</v>
       </c>
       <c r="H273" t="n">
-        <v>-60294.4144</v>
+        <v>-125801.4556</v>
       </c>
       <c r="I273" t="n">
-        <v>39363.5295</v>
+        <v>66788.4616</v>
       </c>
       <c r="J273" t="b">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>74890.8615</v>
+        <v>53225.2789</v>
       </c>
       <c r="G274" t="n">
-        <v>0.001</v>
+        <v>0.6306</v>
       </c>
       <c r="H274" t="n">
-        <v>32942.1982</v>
+        <v>-23442.7407</v>
       </c>
       <c r="I274" t="n">
-        <v>116839.5248</v>
+        <v>129893.2985</v>
       </c>
       <c r="J274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -11425,16 +11425,16 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>-44200.8622</v>
+        <v>-91144.00539999999</v>
       </c>
       <c r="G275" t="n">
-        <v>0.3758</v>
+        <v>0.231</v>
       </c>
       <c r="H275" t="n">
-        <v>-99912.6219</v>
+        <v>-197881.4718</v>
       </c>
       <c r="I275" t="n">
-        <v>11510.8975</v>
+        <v>15593.4611</v>
       </c>
       <c r="J275" t="b">
         <v>0</v>
@@ -11465,16 +11465,16 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>41155.4418</v>
+        <v>-8412.2294</v>
       </c>
       <c r="G276" t="n">
-        <v>0.2522</v>
+        <v>0.9</v>
       </c>
       <c r="H276" t="n">
-        <v>-7635.5828</v>
+        <v>-97844.6225</v>
       </c>
       <c r="I276" t="n">
-        <v>89946.4663</v>
+        <v>81020.1636</v>
       </c>
       <c r="J276" t="b">
         <v>0</v>
@@ -11505,19 +11505,19 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>85356.304</v>
+        <v>82731.77589999999</v>
       </c>
       <c r="G277" t="n">
-        <v>0.001</v>
+        <v>0.076</v>
       </c>
       <c r="H277" t="n">
-        <v>38422.7505</v>
+        <v>-2989.539</v>
       </c>
       <c r="I277" t="n">
-        <v>132289.8574</v>
+        <v>168453.0908</v>
       </c>
       <c r="J277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
